--- a/content/chapters/BW2/_data/lci_hydrogen_electrolysis.xlsx
+++ b/content/chapters/BW2/_data/lci_hydrogen_electrolysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoel_m0\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/brightway-book/content/chapters/BW2/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A82E8E2-616B-4D7C-B164-3B3C4324AF06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC0A20A-A6EE-C94E-BB44-7218D2E82889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="4" r:id="rId1"/>
@@ -38,8 +38,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1787,9 +1787,6 @@
     <t>database</t>
   </si>
   <si>
-    <t>ev391cutoff</t>
-  </si>
-  <si>
     <t>biosphere3</t>
   </si>
   <si>
@@ -1806,6 +1803,9 @@
   </si>
   <si>
     <t>This inventory models hydrogen production from electrolysis with PEM, AEC and SOEC electrolysers.</t>
+  </si>
+  <si>
+    <t>ecoinvent-3.9.1-cutoff</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1817,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2233,16 +2233,28 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="7" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2257,26 +2269,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Prozent" xfId="5" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2560,31 +2560,31 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -2597,31 +2597,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="84" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.59765625" customWidth="1"/>
-    <col min="2" max="2" width="40.86328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1328125" customWidth="1"/>
-    <col min="5" max="5" width="24.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.3984375" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.86328125" customWidth="1"/>
-    <col min="9" max="9" width="56.3984375" customWidth="1"/>
-    <col min="10" max="10" width="99.1328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="68.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="56.33203125" customWidth="1"/>
+    <col min="10" max="10" width="99.1640625" style="5" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2633,7 +2633,7 @@
       <c r="J1" s="6"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="7"/>
       <c r="C2" s="2"/>
@@ -2646,7 +2646,7 @@
       <c r="J2" s="6"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="3" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="4" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="5" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>11</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="6" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
         <v>4</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="7" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>2</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="8" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="40" t="s">
         <v>6</v>
       </c>
@@ -2774,7 +2774,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="9" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="44" t="s">
         <v>7</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="10" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
         <v>8</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="8"/>
     </row>
-    <row r="11" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="11" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="str">
         <f>B3</f>
         <v>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from grid electricity</v>
@@ -2875,7 +2875,7 @@
       <c r="Q11" s="11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="12" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="str">
         <f>B23</f>
         <v>electrolyzer production, 1MWe, PEM, Stack</v>
@@ -2914,7 +2914,7 @@
       <c r="R12"/>
       <c r="S12"/>
     </row>
-    <row r="13" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="13" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="43" t="str">
         <f>B63</f>
         <v>electrolyzer production, 1MWe, PEM, Balance of Plant</v>
@@ -2953,7 +2953,7 @@
       <c r="R13"/>
       <c r="S13"/>
     </row>
-    <row r="14" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="14" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="43" t="s">
         <v>241</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="R14"/>
       <c r="S14"/>
     </row>
-    <row r="15" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="15" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
         <v>255</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="R15"/>
       <c r="S15"/>
     </row>
-    <row r="16" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="16" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>33</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>12</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I16" s="38" t="s">
         <v>492</v>
@@ -3066,7 +3066,7 @@
       <c r="R16"/>
       <c r="S16"/>
     </row>
-    <row r="17" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="17" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>37</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I17" s="45" t="s">
         <v>56</v>
@@ -3102,7 +3102,7 @@
       <c r="R17"/>
       <c r="S17"/>
     </row>
-    <row r="18" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="18" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
         <v>40</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I18" s="47"/>
       <c r="K18"/>
@@ -3134,7 +3134,7 @@
       <c r="R18" s="15"/>
       <c r="S18"/>
     </row>
-    <row r="19" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="19" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
         <v>506</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I19" s="48" t="s">
         <v>507</v>
@@ -3202,7 +3202,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="20" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
         <v>508</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I20" s="48" t="s">
         <v>510</v>
@@ -3260,7 +3260,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="21" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
         <v>511</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I21" s="48" t="s">
         <v>510</v>
@@ -3318,7 +3318,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="22" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -3326,7 +3326,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="23" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3347,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="24" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
         <v>3</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="25" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>11</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="26" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>4</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="27" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>2</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="28" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
         <v>6</v>
       </c>
@@ -3452,7 +3452,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="29" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="44" t="s">
         <v>7</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="30" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="44" t="s">
         <v>8</v>
       </c>
@@ -3514,7 +3514,7 @@
       <c r="T30" s="13"/>
       <c r="U30" s="8"/>
     </row>
-    <row r="31" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="31" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="43" t="str">
         <f>B23</f>
         <v>electrolyzer production, 1MWe, PEM, Stack</v>
@@ -3551,7 +3551,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="32" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
         <v>18</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I32" s="39" t="s">
         <v>59</v>
@@ -3587,7 +3587,7 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="33" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="33" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="s">
         <v>60</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I33" s="39" t="s">
         <v>59</v>
@@ -3623,7 +3623,7 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="34" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="s">
         <v>61</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>12</v>
       </c>
       <c r="H34" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I34" s="39" t="s">
         <v>63</v>
@@ -3659,7 +3659,7 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="35" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="s">
         <v>21</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I35" s="39" t="s">
         <v>64</v>
@@ -3695,7 +3695,7 @@
       <c r="R35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="36" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
         <v>65</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>67</v>
@@ -3731,7 +3731,7 @@
       <c r="R36"/>
       <c r="S36"/>
     </row>
-    <row r="37" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="37" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="s">
         <v>68</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I37" s="39" t="s">
         <v>67</v>
@@ -3767,7 +3767,7 @@
       <c r="R37"/>
       <c r="S37"/>
     </row>
-    <row r="38" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="38" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="s">
         <v>23</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I38" s="38" t="s">
         <v>70</v>
@@ -3803,7 +3803,7 @@
       <c r="R38"/>
       <c r="S38"/>
     </row>
-    <row r="39" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="39" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="s">
         <v>65</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>12</v>
       </c>
       <c r="H39" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I39" s="38" t="s">
         <v>70</v>
@@ -3839,7 +3839,7 @@
       <c r="R39"/>
       <c r="S39"/>
     </row>
-    <row r="40" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="40" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
         <v>71</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>12</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I40" s="39" t="s">
         <v>73</v>
@@ -3875,7 +3875,7 @@
       <c r="R40"/>
       <c r="S40"/>
     </row>
-    <row r="41" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="41" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="s">
         <v>74</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>12</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I41" s="39" t="s">
         <v>73</v>
@@ -3911,7 +3911,7 @@
       <c r="R41"/>
       <c r="S41"/>
     </row>
-    <row r="42" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="42" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
         <v>76</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>12</v>
       </c>
       <c r="H42" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I42" s="39" t="s">
         <v>78</v>
@@ -3947,7 +3947,7 @@
       <c r="R42"/>
       <c r="S42"/>
     </row>
-    <row r="43" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="43" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
         <v>20</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>12</v>
       </c>
       <c r="H43" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I43" s="39" t="s">
         <v>78</v>
@@ -3983,7 +3983,7 @@
       <c r="R43"/>
       <c r="S43"/>
     </row>
-    <row r="44" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="44" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="s">
         <v>79</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>12</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I44" s="39" t="s">
         <v>81</v>
@@ -4019,7 +4019,7 @@
       <c r="R44"/>
       <c r="S44"/>
     </row>
-    <row r="45" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="45" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
         <v>33</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>12</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I45" s="39" t="s">
         <v>82</v>
@@ -4055,7 +4055,7 @@
       <c r="R45"/>
       <c r="S45"/>
     </row>
-    <row r="46" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="46" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="s">
         <v>83</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>14</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I46" s="39"/>
       <c r="K46"/>
@@ -4087,7 +4087,7 @@
       <c r="R46" s="15"/>
       <c r="S46"/>
     </row>
-    <row r="47" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="47" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
@@ -4096,7 +4096,7 @@
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="48" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
         <v>1</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="49" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="40" t="s">
         <v>3</v>
       </c>
@@ -4138,7 +4138,7 @@
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="50" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="40" t="s">
         <v>11</v>
       </c>
@@ -4159,7 +4159,7 @@
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="51" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="40" t="s">
         <v>4</v>
       </c>
@@ -4180,7 +4180,7 @@
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="52" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="40" t="s">
         <v>2</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="53" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="40" t="s">
         <v>6</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="54" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="44" t="s">
         <v>7</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="55" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="44" t="s">
         <v>8</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="T55" s="13"/>
       <c r="U55" s="8"/>
     </row>
-    <row r="56" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="56" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="43" t="str">
         <f>B48</f>
         <v>treatment of fuel cell stack, 1MWe, PEM</v>
@@ -4321,7 +4321,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="57" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="43" t="s">
         <v>242</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I57" s="39"/>
       <c r="K57"/>
@@ -4356,7 +4356,7 @@
       <c r="R57"/>
       <c r="S57"/>
     </row>
-    <row r="58" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="58" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="s">
         <v>244</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>12</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I58" s="39"/>
       <c r="K58"/>
@@ -4391,7 +4391,7 @@
       <c r="R58"/>
       <c r="S58"/>
     </row>
-    <row r="59" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="59" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
         <v>246</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="H59" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I59" s="39"/>
       <c r="K59"/>
@@ -4426,7 +4426,7 @@
       <c r="R59"/>
       <c r="S59"/>
     </row>
-    <row r="60" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="60" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="s">
         <v>248</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>12</v>
       </c>
       <c r="H60" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I60" s="39"/>
       <c r="K60"/>
@@ -4461,7 +4461,7 @@
       <c r="R60"/>
       <c r="S60"/>
     </row>
-    <row r="61" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="61" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="s">
         <v>251</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>12</v>
       </c>
       <c r="H61" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I61" s="39"/>
       <c r="K61"/>
@@ -4496,7 +4496,7 @@
       <c r="R61"/>
       <c r="S61"/>
     </row>
-    <row r="62" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="62" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="12"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
@@ -4505,7 +4505,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="63" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="36" t="s">
         <v>1</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="64" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="40" t="s">
         <v>3</v>
       </c>
@@ -4547,7 +4547,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="65" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="40" t="s">
         <v>11</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="66" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="40" t="s">
         <v>4</v>
       </c>
@@ -4589,7 +4589,7 @@
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
     </row>
-    <row r="67" spans="1:21" s="10" customFormat="1" ht="16.350000000000001" customHeight="1">
+    <row r="67" spans="1:21" s="10" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="40" t="s">
         <v>2</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
     </row>
-    <row r="68" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="68" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="40" t="s">
         <v>6</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
     </row>
-    <row r="69" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="69" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="44" t="s">
         <v>7</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
     </row>
-    <row r="70" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="70" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="44" t="s">
         <v>8</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="T70" s="13"/>
       <c r="U70" s="8"/>
     </row>
-    <row r="71" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="71" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="43" t="str">
         <f>B63</f>
         <v>electrolyzer production, 1MWe, PEM, Balance of Plant</v>
@@ -4731,7 +4731,7 @@
       <c r="P71" s="11"/>
       <c r="Q71" s="18"/>
     </row>
-    <row r="72" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="72" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="s">
         <v>18</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>12</v>
       </c>
       <c r="H72" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I72" s="53" t="s">
         <v>86</v>
@@ -4767,7 +4767,7 @@
       <c r="R72"/>
       <c r="S72"/>
     </row>
-    <row r="73" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="73" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="s">
         <v>71</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>12</v>
       </c>
       <c r="H73" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I73" s="53" t="s">
         <v>86</v>
@@ -4803,7 +4803,7 @@
       <c r="R73"/>
       <c r="S73"/>
     </row>
-    <row r="74" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="74" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="s">
         <v>87</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>12</v>
       </c>
       <c r="H74" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I74" s="53" t="s">
         <v>86</v>
@@ -4839,7 +4839,7 @@
       <c r="R74"/>
       <c r="S74"/>
     </row>
-    <row r="75" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="75" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="s">
         <v>60</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>12</v>
       </c>
       <c r="H75" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I75" s="53" t="s">
         <v>86</v>
@@ -4875,7 +4875,7 @@
       <c r="R75"/>
       <c r="S75"/>
     </row>
-    <row r="76" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="76" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="s">
         <v>88</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>12</v>
       </c>
       <c r="H76" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I76" s="53" t="s">
         <v>86</v>
@@ -4911,7 +4911,7 @@
       <c r="R76"/>
       <c r="S76"/>
     </row>
-    <row r="77" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="77" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="s">
         <v>89</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>12</v>
       </c>
       <c r="H77" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I77" s="53" t="s">
         <v>86</v>
@@ -4947,7 +4947,7 @@
       <c r="R77"/>
       <c r="S77"/>
     </row>
-    <row r="78" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="78" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="s">
         <v>90</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>12</v>
       </c>
       <c r="H78" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I78" s="53" t="s">
         <v>86</v>
@@ -4983,7 +4983,7 @@
       <c r="R78"/>
       <c r="S78"/>
     </row>
-    <row r="79" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="79" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="s">
         <v>31</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="H79" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I79" s="38" t="s">
         <v>91</v>
@@ -5019,7 +5019,7 @@
       <c r="R79"/>
       <c r="S79"/>
     </row>
-    <row r="80" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="80" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="s">
         <v>26</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>12</v>
       </c>
       <c r="H80" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I80" s="38" t="s">
         <v>92</v>
@@ -5055,7 +5055,7 @@
       <c r="R80"/>
       <c r="S80"/>
     </row>
-    <row r="81" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="81" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="s">
         <v>88</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>12</v>
       </c>
       <c r="H81" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I81" s="38" t="s">
         <v>92</v>
@@ -5091,7 +5091,7 @@
       <c r="R81"/>
       <c r="S81"/>
     </row>
-    <row r="82" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="82" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="s">
         <v>76</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="H82" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I82" s="38" t="s">
         <v>93</v>
@@ -5127,7 +5127,7 @@
       <c r="R82"/>
       <c r="S82"/>
     </row>
-    <row r="83" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="83" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="s">
         <v>20</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>12</v>
       </c>
       <c r="H83" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I83" s="38" t="s">
         <v>93</v>
@@ -5163,7 +5163,7 @@
       <c r="R83"/>
       <c r="S83"/>
     </row>
-    <row r="84" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="84" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="s">
         <v>18</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>12</v>
       </c>
       <c r="H84" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I84" s="38" t="s">
         <v>94</v>
@@ -5199,7 +5199,7 @@
       <c r="R84"/>
       <c r="S84"/>
     </row>
-    <row r="85" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="85" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="s">
         <v>60</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>12</v>
       </c>
       <c r="H85" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I85" s="38" t="s">
         <v>94</v>
@@ -5235,7 +5235,7 @@
       <c r="R85"/>
       <c r="S85"/>
     </row>
-    <row r="86" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="86" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="s">
         <v>71</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="H86" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I86" s="38" t="s">
         <v>95</v>
@@ -5271,7 +5271,7 @@
       <c r="R86"/>
       <c r="S86"/>
     </row>
-    <row r="87" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="87" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="s">
         <v>74</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>12</v>
       </c>
       <c r="H87" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I87" s="38" t="s">
         <v>95</v>
@@ -5307,7 +5307,7 @@
       <c r="R87"/>
       <c r="S87"/>
     </row>
-    <row r="88" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="88" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="s">
         <v>28</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>12</v>
       </c>
       <c r="H88" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I88" s="38" t="s">
         <v>96</v>
@@ -5343,7 +5343,7 @@
       <c r="R88"/>
       <c r="S88"/>
     </row>
-    <row r="89" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="89" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="s">
         <v>97</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>12</v>
       </c>
       <c r="H89" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I89" s="38" t="s">
         <v>96</v>
@@ -5379,7 +5379,7 @@
       <c r="R89"/>
       <c r="S89"/>
     </row>
-    <row r="90" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="90" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="s">
         <v>99</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>12</v>
       </c>
       <c r="H90" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I90" s="38" t="s">
         <v>101</v>
@@ -5415,7 +5415,7 @@
       <c r="R90"/>
       <c r="S90"/>
     </row>
-    <row r="91" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="91" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="s">
         <v>102</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>12</v>
       </c>
       <c r="H91" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I91" s="38" t="s">
         <v>104</v>
@@ -5451,7 +5451,7 @@
       <c r="R91"/>
       <c r="S91"/>
     </row>
-    <row r="92" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="92" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="s">
         <v>76</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>12</v>
       </c>
       <c r="H92" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I92" s="38" t="s">
         <v>105</v>
@@ -5487,7 +5487,7 @@
       <c r="R92"/>
       <c r="S92"/>
     </row>
-    <row r="93" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="93" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="s">
         <v>20</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>12</v>
       </c>
       <c r="H93" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I93" s="38" t="s">
         <v>105</v>
@@ -5523,7 +5523,7 @@
       <c r="R93"/>
       <c r="S93"/>
     </row>
-    <row r="94" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="94" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
         <v>106</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>12</v>
       </c>
       <c r="H94" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I94" s="38" t="s">
         <v>108</v>
@@ -5559,7 +5559,7 @@
       <c r="R94"/>
       <c r="S94"/>
     </row>
-    <row r="95" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="95" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="s">
         <v>109</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>12</v>
       </c>
       <c r="H95" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I95" s="38" t="s">
         <v>108</v>
@@ -5595,7 +5595,7 @@
       <c r="R95"/>
       <c r="S95"/>
     </row>
-    <row r="96" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="96" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="s">
         <v>87</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>12</v>
       </c>
       <c r="H96" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I96" s="38" t="s">
         <v>108</v>
@@ -5631,7 +5631,7 @@
       <c r="R96"/>
       <c r="S96"/>
     </row>
-    <row r="97" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="97" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="s">
         <v>88</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>12</v>
       </c>
       <c r="H97" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I97" s="38" t="s">
         <v>108</v>
@@ -5667,7 +5667,7 @@
       <c r="R97"/>
       <c r="S97"/>
     </row>
-    <row r="98" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="98" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="s">
         <v>18</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>12</v>
       </c>
       <c r="H98" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I98" s="38" t="s">
         <v>111</v>
@@ -5703,7 +5703,7 @@
       <c r="R98"/>
       <c r="S98"/>
     </row>
-    <row r="99" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="99" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="s">
         <v>71</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>12</v>
       </c>
       <c r="H99" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I99" s="38" t="s">
         <v>111</v>
@@ -5739,7 +5739,7 @@
       <c r="R99"/>
       <c r="S99"/>
     </row>
-    <row r="100" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="100" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="s">
         <v>87</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>12</v>
       </c>
       <c r="H100" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I100" s="38" t="s">
         <v>111</v>
@@ -5775,7 +5775,7 @@
       <c r="R100"/>
       <c r="S100"/>
     </row>
-    <row r="101" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="101" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="s">
         <v>89</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>12</v>
       </c>
       <c r="H101" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I101" s="38" t="s">
         <v>111</v>
@@ -5811,7 +5811,7 @@
       <c r="R101"/>
       <c r="S101"/>
     </row>
-    <row r="102" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="102" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="s">
         <v>90</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>12</v>
       </c>
       <c r="H102" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I102" s="38" t="s">
         <v>111</v>
@@ -5847,7 +5847,7 @@
       <c r="R102"/>
       <c r="S102"/>
     </row>
-    <row r="103" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="103" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="s">
         <v>112</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>12</v>
       </c>
       <c r="H103" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I103" s="38" t="s">
         <v>114</v>
@@ -5883,7 +5883,7 @@
       <c r="R103"/>
       <c r="S103"/>
     </row>
-    <row r="104" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="104" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="s">
         <v>115</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>12</v>
       </c>
       <c r="H104" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I104" s="38" t="s">
         <v>114</v>
@@ -5919,7 +5919,7 @@
       <c r="R104"/>
       <c r="S104"/>
     </row>
-    <row r="105" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="105" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="s">
         <v>87</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>12</v>
       </c>
       <c r="H105" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I105" s="38" t="s">
         <v>114</v>
@@ -5955,7 +5955,7 @@
       <c r="R105"/>
       <c r="S105"/>
     </row>
-    <row r="106" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="106" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="s">
         <v>76</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>12</v>
       </c>
       <c r="H106" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I106" s="38" t="s">
         <v>114</v>
@@ -5991,7 +5991,7 @@
       <c r="R106"/>
       <c r="S106"/>
     </row>
-    <row r="107" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="107" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="s">
         <v>88</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>12</v>
       </c>
       <c r="H107" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I107" s="38" t="s">
         <v>114</v>
@@ -6027,7 +6027,7 @@
       <c r="R107"/>
       <c r="S107"/>
     </row>
-    <row r="108" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="108" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="s">
         <v>20</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>12</v>
       </c>
       <c r="H108" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I108" s="38" t="s">
         <v>114</v>
@@ -6063,7 +6063,7 @@
       <c r="R108"/>
       <c r="S108"/>
     </row>
-    <row r="109" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="109" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="39" t="s">
         <v>87</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>12</v>
       </c>
       <c r="H109" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I109" s="38" t="s">
         <v>117</v>
@@ -6099,7 +6099,7 @@
       <c r="R109"/>
       <c r="S109"/>
     </row>
-    <row r="110" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="110" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="s">
         <v>76</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>12</v>
       </c>
       <c r="H110" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I110" s="38" t="s">
         <v>117</v>
@@ -6135,7 +6135,7 @@
       <c r="R110"/>
       <c r="S110"/>
     </row>
-    <row r="111" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="111" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="s">
         <v>88</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>12</v>
       </c>
       <c r="H111" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I111" s="38" t="s">
         <v>117</v>
@@ -6171,7 +6171,7 @@
       <c r="R111"/>
       <c r="S111"/>
     </row>
-    <row r="112" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="112" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="39" t="s">
         <v>20</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>12</v>
       </c>
       <c r="H112" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I112" s="38" t="s">
         <v>117</v>
@@ -6207,7 +6207,7 @@
       <c r="R112"/>
       <c r="S112"/>
     </row>
-    <row r="113" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="113" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="39" t="s">
         <v>76</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>12</v>
       </c>
       <c r="H113" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I113" s="38" t="s">
         <v>118</v>
@@ -6243,7 +6243,7 @@
       <c r="R113"/>
       <c r="S113"/>
     </row>
-    <row r="114" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="114" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="s">
         <v>20</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>12</v>
       </c>
       <c r="H114" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I114" s="38" t="s">
         <v>118</v>
@@ -6279,7 +6279,7 @@
       <c r="R114"/>
       <c r="S114"/>
     </row>
-    <row r="115" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="115" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="39" t="s">
         <v>119</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>12</v>
       </c>
       <c r="H115" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I115" s="38" t="s">
         <v>118</v>
@@ -6315,7 +6315,7 @@
       <c r="R115"/>
       <c r="S115"/>
     </row>
-    <row r="116" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="116" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="s">
         <v>88</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>12</v>
       </c>
       <c r="H116" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I116" s="38" t="s">
         <v>122</v>
@@ -6351,7 +6351,7 @@
       <c r="R116"/>
       <c r="S116"/>
     </row>
-    <row r="117" spans="1:21" s="10" customFormat="1" ht="15.6" customHeight="1">
+    <row r="117" spans="1:21" s="10" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="54" t="s">
         <v>26</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>12</v>
       </c>
       <c r="H117" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I117" s="38" t="s">
         <v>122</v>
@@ -6387,7 +6387,7 @@
       <c r="R117"/>
       <c r="S117"/>
     </row>
-    <row r="118" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="118" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="39" t="s">
         <v>123</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>12</v>
       </c>
       <c r="H118" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I118" s="38" t="s">
         <v>125</v>
@@ -6423,7 +6423,7 @@
       <c r="R118"/>
       <c r="S118"/>
     </row>
-    <row r="119" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="119" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="39" t="s">
         <v>33</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="H119" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I119" s="39" t="s">
         <v>82</v>
@@ -6459,7 +6459,7 @@
       <c r="R119"/>
       <c r="S119"/>
     </row>
-    <row r="120" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="120" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B120" s="12"/>
       <c r="L120" s="11"/>
       <c r="M120" s="11"/>
@@ -6468,7 +6468,7 @@
       <c r="P120" s="11"/>
       <c r="Q120" s="11"/>
     </row>
-    <row r="121" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="121" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="36" t="s">
         <v>1</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="P121" s="11"/>
       <c r="Q121" s="11"/>
     </row>
-    <row r="122" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="122" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="40" t="s">
         <v>3</v>
       </c>
@@ -6510,7 +6510,7 @@
       <c r="P122" s="11"/>
       <c r="Q122" s="11"/>
     </row>
-    <row r="123" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="123" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="40" t="s">
         <v>11</v>
       </c>
@@ -6531,7 +6531,7 @@
       <c r="P123" s="11"/>
       <c r="Q123" s="11"/>
     </row>
-    <row r="124" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="124" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="40" t="s">
         <v>4</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="P124" s="11"/>
       <c r="Q124" s="11"/>
     </row>
-    <row r="125" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="125" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="40" t="s">
         <v>2</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="P125" s="11"/>
       <c r="Q125" s="11"/>
     </row>
-    <row r="126" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="126" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="40" t="s">
         <v>6</v>
       </c>
@@ -6594,7 +6594,7 @@
       <c r="P126" s="11"/>
       <c r="Q126" s="11"/>
     </row>
-    <row r="127" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="127" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="44" t="s">
         <v>7</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="P127" s="11"/>
       <c r="Q127" s="11"/>
     </row>
-    <row r="128" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="128" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="44" t="s">
         <v>8</v>
       </c>
@@ -6656,7 +6656,7 @@
       <c r="T128" s="13"/>
       <c r="U128" s="8"/>
     </row>
-    <row r="129" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="129" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="43" t="str">
         <f>B121</f>
         <v>treatment of fuel cell balance of plant, 1MWe, PEM</v>
@@ -6693,7 +6693,7 @@
       <c r="P129" s="11"/>
       <c r="Q129" s="11"/>
     </row>
-    <row r="130" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="130" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="43" t="s">
         <v>242</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>12</v>
       </c>
       <c r="H130" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I130" s="39"/>
       <c r="K130"/>
@@ -6728,7 +6728,7 @@
       <c r="R130"/>
       <c r="S130"/>
     </row>
-    <row r="131" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="131" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="43" t="s">
         <v>499</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>12</v>
       </c>
       <c r="H131" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I131" s="39"/>
       <c r="K131"/>
@@ -6762,7 +6762,7 @@
       <c r="R131"/>
       <c r="S131"/>
     </row>
-    <row r="132" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="132" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="39" t="s">
         <v>244</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>12</v>
       </c>
       <c r="H132" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I132" s="39"/>
       <c r="K132"/>
@@ -6796,7 +6796,7 @@
       <c r="R132"/>
       <c r="S132"/>
     </row>
-    <row r="133" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="133" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="39" t="s">
         <v>271</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>12</v>
       </c>
       <c r="H133" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I133" s="39"/>
       <c r="K133"/>
@@ -6830,7 +6830,7 @@
       <c r="R133"/>
       <c r="S133"/>
     </row>
-    <row r="134" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="134" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="39" t="s">
         <v>259</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>12</v>
       </c>
       <c r="H134" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I134" s="39"/>
       <c r="K134"/>
@@ -6864,7 +6864,7 @@
       <c r="R134"/>
       <c r="S134"/>
     </row>
-    <row r="135" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="135" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="39" t="s">
         <v>260</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>12</v>
       </c>
       <c r="H135" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I135" s="39"/>
       <c r="K135"/>
@@ -6898,7 +6898,7 @@
       <c r="R135"/>
       <c r="S135"/>
     </row>
-    <row r="136" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="136" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="39" t="s">
         <v>262</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>12</v>
       </c>
       <c r="H136" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I136" s="39"/>
       <c r="K136"/>
@@ -6932,7 +6932,7 @@
       <c r="R136"/>
       <c r="S136"/>
     </row>
-    <row r="137" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="137" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="39" t="s">
         <v>501</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>12</v>
       </c>
       <c r="H137" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I137" s="39"/>
       <c r="K137"/>
@@ -6966,7 +6966,7 @@
       <c r="R137"/>
       <c r="S137"/>
     </row>
-    <row r="138" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="138" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="39" t="s">
         <v>246</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>12</v>
       </c>
       <c r="H138" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I138" s="39"/>
       <c r="K138"/>
@@ -7000,7 +7000,7 @@
       <c r="R138"/>
       <c r="S138"/>
     </row>
-    <row r="139" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="139" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="39" t="s">
         <v>248</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>12</v>
       </c>
       <c r="H139" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I139" s="39"/>
       <c r="K139"/>
@@ -7034,7 +7034,7 @@
       <c r="R139"/>
       <c r="S139"/>
     </row>
-    <row r="140" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="140" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="39" t="s">
         <v>498</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>12</v>
       </c>
       <c r="H140" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I140" s="39"/>
       <c r="K140"/>
@@ -7068,7 +7068,7 @@
       <c r="R140"/>
       <c r="S140"/>
     </row>
-    <row r="141" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="141" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="39" t="s">
         <v>265</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>12</v>
       </c>
       <c r="H141" s="39" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I141" s="39"/>
       <c r="K141"/>
@@ -7102,7 +7102,7 @@
       <c r="R141"/>
       <c r="S141"/>
     </row>
-    <row r="142" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="142" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B142" s="12"/>
       <c r="L142" s="11"/>
       <c r="M142" s="11"/>
@@ -7111,7 +7111,7 @@
       <c r="P142" s="11"/>
       <c r="Q142" s="11"/>
     </row>
-    <row r="143" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="143" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="36" t="s">
         <v>1</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="P143" s="11"/>
       <c r="Q143" s="11"/>
     </row>
-    <row r="144" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="144" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="40" t="s">
         <v>3</v>
       </c>
@@ -7153,7 +7153,7 @@
       <c r="P144" s="11"/>
       <c r="Q144" s="11"/>
     </row>
-    <row r="145" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="145" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="40" t="s">
         <v>11</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="P145" s="11"/>
       <c r="Q145" s="11"/>
     </row>
-    <row r="146" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="146" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="40" t="s">
         <v>4</v>
       </c>
@@ -7195,7 +7195,7 @@
       <c r="P146" s="11"/>
       <c r="Q146" s="11"/>
     </row>
-    <row r="147" spans="1:21" s="10" customFormat="1" ht="16.350000000000001" customHeight="1">
+    <row r="147" spans="1:21" s="10" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="40" t="s">
         <v>2</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="P147" s="11"/>
       <c r="Q147" s="11"/>
     </row>
-    <row r="148" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="148" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="40" t="s">
         <v>6</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="P148" s="11"/>
       <c r="Q148" s="11"/>
     </row>
-    <row r="149" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="149" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="44" t="s">
         <v>7</v>
       </c>
@@ -7258,7 +7258,7 @@
       <c r="P149" s="11"/>
       <c r="Q149" s="11"/>
     </row>
-    <row r="150" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="150" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="44" t="s">
         <v>8</v>
       </c>
@@ -7299,7 +7299,7 @@
       <c r="T150" s="13"/>
       <c r="U150" s="8"/>
     </row>
-    <row r="151" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="151" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="43" t="str">
         <f>B143</f>
         <v>iridium production</v>
@@ -7338,7 +7338,7 @@
       <c r="P151" s="11"/>
       <c r="Q151" s="11"/>
     </row>
-    <row r="152" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="152" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="39" t="s">
         <v>127</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>14</v>
       </c>
       <c r="H152" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I152" s="39"/>
       <c r="K152"/>
@@ -7370,7 +7370,7 @@
       <c r="R152" s="15"/>
       <c r="S152"/>
     </row>
-    <row r="153" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="153" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="39" t="s">
         <v>128</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>14</v>
       </c>
       <c r="H153" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I153" s="39"/>
       <c r="K153"/>
@@ -7402,7 +7402,7 @@
       <c r="R153" s="15"/>
       <c r="S153"/>
     </row>
-    <row r="154" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="154" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="39" t="s">
         <v>129</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>14</v>
       </c>
       <c r="H154" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I154" s="39"/>
       <c r="K154"/>
@@ -7434,7 +7434,7 @@
       <c r="R154" s="15"/>
       <c r="S154"/>
     </row>
-    <row r="155" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="155" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="39" t="s">
         <v>130</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>14</v>
       </c>
       <c r="H155" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I155" s="39"/>
       <c r="K155"/>
@@ -7466,7 +7466,7 @@
       <c r="R155" s="15"/>
       <c r="S155"/>
     </row>
-    <row r="156" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="156" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="39" t="s">
         <v>131</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>14</v>
       </c>
       <c r="H156" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I156" s="39"/>
       <c r="K156"/>
@@ -7498,7 +7498,7 @@
       <c r="R156" s="15"/>
       <c r="S156"/>
     </row>
-    <row r="157" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="157" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="39" t="s">
         <v>132</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>14</v>
       </c>
       <c r="H157" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I157" s="39"/>
       <c r="K157"/>
@@ -7530,7 +7530,7 @@
       <c r="R157" s="15"/>
       <c r="S157"/>
     </row>
-    <row r="158" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="158" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="39" t="s">
         <v>133</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>14</v>
       </c>
       <c r="H158" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I158" s="39"/>
       <c r="K158"/>
@@ -7562,7 +7562,7 @@
       <c r="R158" s="15"/>
       <c r="S158"/>
     </row>
-    <row r="159" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="159" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="39" t="s">
         <v>134</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>14</v>
       </c>
       <c r="H159" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I159" s="39"/>
       <c r="K159"/>
@@ -7594,7 +7594,7 @@
       <c r="R159" s="15"/>
       <c r="S159"/>
     </row>
-    <row r="160" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="160" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="39" t="s">
         <v>135</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>14</v>
       </c>
       <c r="H160" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I160" s="39"/>
       <c r="K160"/>
@@ -7626,7 +7626,7 @@
       <c r="R160" s="15"/>
       <c r="S160"/>
     </row>
-    <row r="161" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="161" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="39" t="s">
         <v>136</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>14</v>
       </c>
       <c r="H161" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I161" s="39"/>
       <c r="K161"/>
@@ -7658,7 +7658,7 @@
       <c r="R161" s="15"/>
       <c r="S161"/>
     </row>
-    <row r="162" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="162" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="39" t="s">
         <v>137</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>14</v>
       </c>
       <c r="H162" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I162" s="39"/>
       <c r="K162"/>
@@ -7690,7 +7690,7 @@
       <c r="R162" s="15"/>
       <c r="S162"/>
     </row>
-    <row r="163" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="163" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="39" t="s">
         <v>138</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>14</v>
       </c>
       <c r="H163" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I163" s="39"/>
       <c r="K163"/>
@@ -7722,7 +7722,7 @@
       <c r="R163" s="15"/>
       <c r="S163"/>
     </row>
-    <row r="164" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="164" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="39" t="s">
         <v>139</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>14</v>
       </c>
       <c r="H164" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I164" s="39"/>
       <c r="K164"/>
@@ -7754,7 +7754,7 @@
       <c r="R164" s="15"/>
       <c r="S164"/>
     </row>
-    <row r="165" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="165" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="39" t="s">
         <v>140</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>14</v>
       </c>
       <c r="H165" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I165" s="39"/>
       <c r="K165"/>
@@ -7786,7 +7786,7 @@
       <c r="R165" s="15"/>
       <c r="S165"/>
     </row>
-    <row r="166" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="166" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="39" t="s">
         <v>141</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>14</v>
       </c>
       <c r="H166" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I166" s="39"/>
       <c r="K166"/>
@@ -7818,7 +7818,7 @@
       <c r="R166" s="15"/>
       <c r="S166"/>
     </row>
-    <row r="167" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="167" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="39" t="s">
         <v>142</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>14</v>
       </c>
       <c r="H167" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I167" s="39"/>
       <c r="K167"/>
@@ -7850,7 +7850,7 @@
       <c r="R167" s="15"/>
       <c r="S167"/>
     </row>
-    <row r="168" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="168" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="39" t="s">
         <v>143</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>14</v>
       </c>
       <c r="H168" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I168" s="39"/>
       <c r="K168"/>
@@ -7882,7 +7882,7 @@
       <c r="R168" s="15"/>
       <c r="S168"/>
     </row>
-    <row r="169" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="169" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="39" t="s">
         <v>144</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>14</v>
       </c>
       <c r="H169" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I169" s="39"/>
       <c r="K169"/>
@@ -7914,7 +7914,7 @@
       <c r="R169" s="15"/>
       <c r="S169"/>
     </row>
-    <row r="170" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="170" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="39" t="s">
         <v>145</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>14</v>
       </c>
       <c r="H170" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I170" s="39"/>
       <c r="K170"/>
@@ -7946,7 +7946,7 @@
       <c r="R170" s="15"/>
       <c r="S170"/>
     </row>
-    <row r="171" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="171" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="39" t="s">
         <v>146</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>14</v>
       </c>
       <c r="H171" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I171" s="39"/>
       <c r="K171"/>
@@ -7978,7 +7978,7 @@
       <c r="R171" s="15"/>
       <c r="S171"/>
     </row>
-    <row r="172" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="172" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="39" t="s">
         <v>147</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>14</v>
       </c>
       <c r="H172" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I172" s="39"/>
       <c r="K172"/>
@@ -8010,7 +8010,7 @@
       <c r="R172" s="15"/>
       <c r="S172"/>
     </row>
-    <row r="173" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="173" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="39" t="s">
         <v>148</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>14</v>
       </c>
       <c r="H173" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I173" s="39"/>
       <c r="K173"/>
@@ -8042,7 +8042,7 @@
       <c r="R173" s="15"/>
       <c r="S173"/>
     </row>
-    <row r="174" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="174" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="39" t="s">
         <v>149</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>14</v>
       </c>
       <c r="H174" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I174" s="39"/>
       <c r="K174"/>
@@ -8074,7 +8074,7 @@
       <c r="R174" s="15"/>
       <c r="S174"/>
     </row>
-    <row r="175" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="175" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="39" t="s">
         <v>150</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>14</v>
       </c>
       <c r="H175" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I175" s="39"/>
       <c r="K175"/>
@@ -8106,7 +8106,7 @@
       <c r="R175" s="15"/>
       <c r="S175"/>
     </row>
-    <row r="176" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="176" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="39" t="s">
         <v>151</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>14</v>
       </c>
       <c r="H176" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I176" s="39"/>
       <c r="K176"/>
@@ -8138,7 +8138,7 @@
       <c r="R176" s="15"/>
       <c r="S176"/>
     </row>
-    <row r="177" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="177" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="39" t="s">
         <v>152</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>14</v>
       </c>
       <c r="H177" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I177" s="39"/>
       <c r="K177"/>
@@ -8170,7 +8170,7 @@
       <c r="R177" s="15"/>
       <c r="S177"/>
     </row>
-    <row r="178" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="178" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="39" t="s">
         <v>153</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>14</v>
       </c>
       <c r="H178" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I178" s="39"/>
       <c r="K178"/>
@@ -8202,7 +8202,7 @@
       <c r="R178" s="15"/>
       <c r="S178"/>
     </row>
-    <row r="179" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="179" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="39" t="s">
         <v>154</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>14</v>
       </c>
       <c r="H179" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I179" s="39"/>
       <c r="K179"/>
@@ -8234,7 +8234,7 @@
       <c r="R179" s="15"/>
       <c r="S179"/>
     </row>
-    <row r="180" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="180" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="39" t="s">
         <v>155</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>14</v>
       </c>
       <c r="H180" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I180" s="39"/>
       <c r="K180"/>
@@ -8266,7 +8266,7 @@
       <c r="R180" s="15"/>
       <c r="S180"/>
     </row>
-    <row r="181" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="181" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="39" t="s">
         <v>156</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>14</v>
       </c>
       <c r="H181" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I181" s="39"/>
       <c r="K181"/>
@@ -8298,7 +8298,7 @@
       <c r="R181" s="15"/>
       <c r="S181"/>
     </row>
-    <row r="182" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="182" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="39" t="s">
         <v>157</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>14</v>
       </c>
       <c r="H182" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I182" s="39"/>
       <c r="K182"/>
@@ -8330,7 +8330,7 @@
       <c r="R182" s="15"/>
       <c r="S182"/>
     </row>
-    <row r="183" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="183" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="39" t="s">
         <v>158</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>14</v>
       </c>
       <c r="H183" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I183" s="39"/>
       <c r="K183"/>
@@ -8362,7 +8362,7 @@
       <c r="R183" s="15"/>
       <c r="S183"/>
     </row>
-    <row r="184" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="184" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B184" s="12"/>
       <c r="L184" s="11"/>
       <c r="M184" s="11"/>
@@ -8371,7 +8371,7 @@
       <c r="P184" s="11"/>
       <c r="Q184" s="11"/>
     </row>
-    <row r="185" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="185" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="56" t="s">
         <v>1</v>
       </c>
@@ -8392,7 +8392,7 @@
       <c r="P185" s="11"/>
       <c r="Q185" s="11"/>
     </row>
-    <row r="186" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="186" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="60" t="s">
         <v>3</v>
       </c>
@@ -8413,7 +8413,7 @@
       <c r="P186" s="11"/>
       <c r="Q186" s="11"/>
     </row>
-    <row r="187" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="187" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="60" t="s">
         <v>11</v>
       </c>
@@ -8434,7 +8434,7 @@
       <c r="P187" s="11"/>
       <c r="Q187" s="11"/>
     </row>
-    <row r="188" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="188" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="60" t="s">
         <v>4</v>
       </c>
@@ -8455,7 +8455,7 @@
       <c r="P188" s="11"/>
       <c r="Q188" s="11"/>
     </row>
-    <row r="189" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="189" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="60" t="s">
         <v>2</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="P189" s="11"/>
       <c r="Q189" s="11"/>
     </row>
-    <row r="190" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="190" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="60" t="s">
         <v>6</v>
       </c>
@@ -8499,7 +8499,7 @@
       <c r="P190" s="11"/>
       <c r="Q190" s="11"/>
     </row>
-    <row r="191" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="191" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="64" t="s">
         <v>7</v>
       </c>
@@ -8520,7 +8520,7 @@
       <c r="P191" s="11"/>
       <c r="Q191" s="11"/>
     </row>
-    <row r="192" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="192" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="64" t="s">
         <v>8</v>
       </c>
@@ -8561,7 +8561,7 @@
       <c r="T192" s="13"/>
       <c r="U192" s="8"/>
     </row>
-    <row r="193" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="193" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="63" t="str">
         <f>B185</f>
         <v>hydrogen production, gaseous, 20 bar, from AEC electrolysis, from grid electricity</v>
@@ -8600,7 +8600,7 @@
       <c r="Q193" s="11"/>
       <c r="U193"/>
     </row>
-    <row r="194" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="194" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="63" t="str">
         <f>B206</f>
         <v>electrolyzer production, 1MWe, AEC, Stack</v>
@@ -8623,7 +8623,7 @@
         <v>12</v>
       </c>
       <c r="H194" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I194" s="58" t="s">
         <v>49</v>
@@ -8638,7 +8638,7 @@
       <c r="R194"/>
       <c r="S194"/>
     </row>
-    <row r="195" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="195" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="63" t="str">
         <f>B235</f>
         <v>electrolyzer production, 1MWe, AEC, Balance of Plant</v>
@@ -8661,7 +8661,7 @@
         <v>12</v>
       </c>
       <c r="H195" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I195" s="58" t="s">
         <v>490</v>
@@ -8676,7 +8676,7 @@
       <c r="R195"/>
       <c r="S195"/>
     </row>
-    <row r="196" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="196" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="63" t="s">
         <v>267</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>12</v>
       </c>
       <c r="H196" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I196" s="58" t="s">
         <v>254</v>
@@ -8713,7 +8713,7 @@
       <c r="R196"/>
       <c r="S196"/>
     </row>
-    <row r="197" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="197" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="63" t="s">
         <v>269</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>12</v>
       </c>
       <c r="H197" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I197" s="58" t="s">
         <v>266</v>
@@ -8750,7 +8750,7 @@
       <c r="R197"/>
       <c r="S197"/>
     </row>
-    <row r="198" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="198" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="60" t="s">
         <v>52</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>12</v>
       </c>
       <c r="H198" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I198" s="59" t="s">
         <v>493</v>
@@ -8787,7 +8787,7 @@
       <c r="R198"/>
       <c r="S198"/>
     </row>
-    <row r="199" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="199" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="60" t="s">
         <v>162</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>12</v>
       </c>
       <c r="H199" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I199" s="59" t="s">
         <v>164</v>
@@ -8823,7 +8823,7 @@
       <c r="R199"/>
       <c r="S199"/>
     </row>
-    <row r="200" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="200" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="60" t="s">
         <v>37</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>12</v>
       </c>
       <c r="H200" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I200" s="67" t="s">
         <v>56</v>
@@ -8859,7 +8859,7 @@
       <c r="R200"/>
       <c r="S200"/>
     </row>
-    <row r="201" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="201" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="68" t="s">
         <v>40</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>14</v>
       </c>
       <c r="H201" s="68" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I201" s="69"/>
       <c r="K201"/>
@@ -8891,7 +8891,7 @@
       <c r="R201" s="15"/>
       <c r="S201"/>
     </row>
-    <row r="202" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="202" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="70" t="s">
         <v>506</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>14</v>
       </c>
       <c r="H202" s="68" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I202" s="70" t="s">
         <v>512</v>
@@ -8959,7 +8959,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="203" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="203" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="70" t="s">
         <v>508</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>14</v>
       </c>
       <c r="H203" s="68" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I203" s="70" t="s">
         <v>513</v>
@@ -9017,7 +9017,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="204" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="204" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="70" t="s">
         <v>511</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>14</v>
       </c>
       <c r="H204" s="68" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I204" s="70" t="s">
         <v>513</v>
@@ -9075,7 +9075,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="205" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="205" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B205" s="12"/>
       <c r="L205" s="11"/>
       <c r="M205" s="11"/>
@@ -9084,7 +9084,7 @@
       <c r="P205" s="11"/>
       <c r="Q205" s="11"/>
     </row>
-    <row r="206" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="206" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="56" t="s">
         <v>1</v>
       </c>
@@ -9105,7 +9105,7 @@
       <c r="P206" s="11"/>
       <c r="Q206" s="11"/>
     </row>
-    <row r="207" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="207" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="60" t="s">
         <v>3</v>
       </c>
@@ -9126,7 +9126,7 @@
       <c r="P207" s="11"/>
       <c r="Q207" s="11"/>
     </row>
-    <row r="208" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="208" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="60" t="s">
         <v>11</v>
       </c>
@@ -9147,7 +9147,7 @@
       <c r="P208" s="11"/>
       <c r="Q208" s="11"/>
     </row>
-    <row r="209" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="209" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="60" t="s">
         <v>4</v>
       </c>
@@ -9168,7 +9168,7 @@
       <c r="P209" s="11"/>
       <c r="Q209" s="11"/>
     </row>
-    <row r="210" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="210" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="60" t="s">
         <v>2</v>
       </c>
@@ -9189,7 +9189,7 @@
       <c r="P210" s="11"/>
       <c r="Q210" s="11"/>
     </row>
-    <row r="211" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="211" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="60" t="s">
         <v>6</v>
       </c>
@@ -9210,7 +9210,7 @@
       <c r="P211" s="11"/>
       <c r="Q211" s="11"/>
     </row>
-    <row r="212" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="212" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="64" t="s">
         <v>7</v>
       </c>
@@ -9231,7 +9231,7 @@
       <c r="P212" s="11"/>
       <c r="Q212" s="11"/>
     </row>
-    <row r="213" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="213" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="64" t="s">
         <v>8</v>
       </c>
@@ -9272,7 +9272,7 @@
       <c r="T213" s="13"/>
       <c r="U213" s="8"/>
     </row>
-    <row r="214" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="214" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="63" t="str">
         <f>B206</f>
         <v>electrolyzer production, 1MWe, AEC, Stack</v>
@@ -9309,7 +9309,7 @@
       <c r="P214" s="11"/>
       <c r="Q214" s="11"/>
     </row>
-    <row r="215" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="215" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="58" t="s">
         <v>21</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>12</v>
       </c>
       <c r="H215" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I215" s="58" t="s">
         <v>81</v>
@@ -9345,7 +9345,7 @@
       <c r="R215"/>
       <c r="S215"/>
     </row>
-    <row r="216" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="216" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="58" t="s">
         <v>76</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>12</v>
       </c>
       <c r="H216" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I216" s="58" t="s">
         <v>167</v>
@@ -9381,7 +9381,7 @@
       <c r="R216"/>
       <c r="S216"/>
     </row>
-    <row r="217" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="217" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="58" t="s">
         <v>20</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>12</v>
       </c>
       <c r="H217" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I217" s="58" t="s">
         <v>167</v>
@@ -9417,7 +9417,7 @@
       <c r="R217"/>
       <c r="S217"/>
     </row>
-    <row r="218" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="218" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="58" t="s">
         <v>168</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>12</v>
       </c>
       <c r="H218" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I218" s="58" t="s">
         <v>167</v>
@@ -9453,7 +9453,7 @@
       <c r="R218"/>
       <c r="S218"/>
     </row>
-    <row r="219" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="219" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="58" t="s">
         <v>170</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>12</v>
       </c>
       <c r="H219" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I219" s="58" t="s">
         <v>172</v>
@@ -9489,7 +9489,7 @@
       <c r="R219"/>
       <c r="S219"/>
     </row>
-    <row r="220" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="220" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="58" t="s">
         <v>173</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>12</v>
       </c>
       <c r="H220" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I220" s="58" t="s">
         <v>172</v>
@@ -9525,7 +9525,7 @@
       <c r="R220"/>
       <c r="S220"/>
     </row>
-    <row r="221" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="221" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="58" t="s">
         <v>33</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>12</v>
       </c>
       <c r="H221" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I221" s="58" t="s">
         <v>82</v>
@@ -9561,7 +9561,7 @@
       <c r="R221"/>
       <c r="S221"/>
     </row>
-    <row r="222" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="222" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B222" s="12"/>
       <c r="C222" s="9"/>
       <c r="G222" s="9"/>
@@ -9573,7 +9573,7 @@
       <c r="P222" s="11"/>
       <c r="Q222" s="11"/>
     </row>
-    <row r="223" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="223" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="56" t="s">
         <v>1</v>
       </c>
@@ -9594,7 +9594,7 @@
       <c r="P223" s="11"/>
       <c r="Q223" s="11"/>
     </row>
-    <row r="224" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="224" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="60" t="s">
         <v>3</v>
       </c>
@@ -9615,7 +9615,7 @@
       <c r="P224" s="11"/>
       <c r="Q224" s="11"/>
     </row>
-    <row r="225" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="225" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="60" t="s">
         <v>11</v>
       </c>
@@ -9636,7 +9636,7 @@
       <c r="P225" s="11"/>
       <c r="Q225" s="11"/>
     </row>
-    <row r="226" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="226" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="60" t="s">
         <v>4</v>
       </c>
@@ -9657,7 +9657,7 @@
       <c r="P226" s="11"/>
       <c r="Q226" s="11"/>
     </row>
-    <row r="227" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="227" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="60" t="s">
         <v>2</v>
       </c>
@@ -9678,7 +9678,7 @@
       <c r="P227" s="11"/>
       <c r="Q227" s="11"/>
     </row>
-    <row r="228" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="228" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="60" t="s">
         <v>6</v>
       </c>
@@ -9699,7 +9699,7 @@
       <c r="P228" s="11"/>
       <c r="Q228" s="11"/>
     </row>
-    <row r="229" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="229" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="64" t="s">
         <v>7</v>
       </c>
@@ -9720,7 +9720,7 @@
       <c r="P229" s="11"/>
       <c r="Q229" s="11"/>
     </row>
-    <row r="230" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="230" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="64" t="s">
         <v>8</v>
       </c>
@@ -9761,7 +9761,7 @@
       <c r="T230" s="13"/>
       <c r="U230" s="8"/>
     </row>
-    <row r="231" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="231" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="63" t="str">
         <f>B223</f>
         <v>treatment of fuel cell stack, 1MWe, AEC</v>
@@ -9798,7 +9798,7 @@
       <c r="P231" s="11"/>
       <c r="Q231" s="11"/>
     </row>
-    <row r="232" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="232" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="63" t="s">
         <v>242</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>12</v>
       </c>
       <c r="H232" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I232" s="58"/>
       <c r="K232"/>
@@ -9832,7 +9832,7 @@
       <c r="R232"/>
       <c r="S232"/>
     </row>
-    <row r="233" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="233" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="58" t="s">
         <v>248</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>12</v>
       </c>
       <c r="H233" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I233" s="58"/>
       <c r="K233"/>
@@ -9866,7 +9866,7 @@
       <c r="R233"/>
       <c r="S233"/>
     </row>
-    <row r="234" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="234" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B234" s="12"/>
       <c r="L234" s="11"/>
       <c r="M234" s="11"/>
@@ -9875,7 +9875,7 @@
       <c r="P234" s="11"/>
       <c r="Q234" s="11"/>
     </row>
-    <row r="235" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="235" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="56" t="s">
         <v>1</v>
       </c>
@@ -9896,7 +9896,7 @@
       <c r="P235" s="11"/>
       <c r="Q235" s="11"/>
     </row>
-    <row r="236" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="236" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="60" t="s">
         <v>3</v>
       </c>
@@ -9917,7 +9917,7 @@
       <c r="P236" s="11"/>
       <c r="Q236" s="11"/>
     </row>
-    <row r="237" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="237" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="60" t="s">
         <v>11</v>
       </c>
@@ -9938,7 +9938,7 @@
       <c r="P237" s="11"/>
       <c r="Q237" s="11"/>
     </row>
-    <row r="238" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="238" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="60" t="s">
         <v>4</v>
       </c>
@@ -9959,7 +9959,7 @@
       <c r="P238" s="11"/>
       <c r="Q238" s="11"/>
     </row>
-    <row r="239" spans="1:21" s="10" customFormat="1" ht="16.350000000000001" customHeight="1">
+    <row r="239" spans="1:21" s="10" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="60" t="s">
         <v>2</v>
       </c>
@@ -9980,7 +9980,7 @@
       <c r="P239" s="11"/>
       <c r="Q239" s="11"/>
     </row>
-    <row r="240" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="240" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="60" t="s">
         <v>6</v>
       </c>
@@ -10002,7 +10002,7 @@
       <c r="P240" s="11"/>
       <c r="Q240" s="11"/>
     </row>
-    <row r="241" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="241" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="64" t="s">
         <v>7</v>
       </c>
@@ -10022,7 +10022,7 @@
       <c r="P241" s="11"/>
       <c r="Q241" s="11"/>
     </row>
-    <row r="242" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="242" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="64" t="s">
         <v>8</v>
       </c>
@@ -10063,7 +10063,7 @@
       <c r="T242" s="13"/>
       <c r="U242" s="8"/>
     </row>
-    <row r="243" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="243" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="63" t="str">
         <f>B235</f>
         <v>electrolyzer production, 1MWe, AEC, Balance of Plant</v>
@@ -10102,7 +10102,7 @@
       <c r="P243" s="11"/>
       <c r="Q243" s="11"/>
     </row>
-    <row r="244" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="244" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="58" t="s">
         <v>18</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>12</v>
       </c>
       <c r="H244" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I244" s="72" t="s">
         <v>86</v>
@@ -10138,7 +10138,7 @@
       <c r="R244"/>
       <c r="S244"/>
     </row>
-    <row r="245" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="245" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="58" t="s">
         <v>71</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>12</v>
       </c>
       <c r="H245" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I245" s="72" t="s">
         <v>86</v>
@@ -10174,7 +10174,7 @@
       <c r="R245"/>
       <c r="S245"/>
     </row>
-    <row r="246" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="246" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="58" t="s">
         <v>87</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>12</v>
       </c>
       <c r="H246" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I246" s="72" t="s">
         <v>86</v>
@@ -10210,7 +10210,7 @@
       <c r="R246"/>
       <c r="S246"/>
     </row>
-    <row r="247" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="247" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="58" t="s">
         <v>60</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>12</v>
       </c>
       <c r="H247" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I247" s="72" t="s">
         <v>86</v>
@@ -10246,7 +10246,7 @@
       <c r="R247"/>
       <c r="S247"/>
     </row>
-    <row r="248" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="248" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="58" t="s">
         <v>88</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>12</v>
       </c>
       <c r="H248" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I248" s="72" t="s">
         <v>86</v>
@@ -10282,7 +10282,7 @@
       <c r="R248"/>
       <c r="S248"/>
     </row>
-    <row r="249" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="249" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="58" t="s">
         <v>89</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>12</v>
       </c>
       <c r="H249" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I249" s="72" t="s">
         <v>86</v>
@@ -10318,7 +10318,7 @@
       <c r="R249"/>
       <c r="S249"/>
     </row>
-    <row r="250" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="250" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="58" t="s">
         <v>90</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>12</v>
       </c>
       <c r="H250" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I250" s="72" t="s">
         <v>86</v>
@@ -10354,7 +10354,7 @@
       <c r="R250"/>
       <c r="S250"/>
     </row>
-    <row r="251" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="251" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="58" t="s">
         <v>31</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>12</v>
       </c>
       <c r="H251" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I251" s="59" t="s">
         <v>91</v>
@@ -10390,7 +10390,7 @@
       <c r="R251"/>
       <c r="S251"/>
     </row>
-    <row r="252" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="252" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="58" t="s">
         <v>177</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>12</v>
       </c>
       <c r="H252" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I252" s="59" t="s">
         <v>179</v>
@@ -10426,7 +10426,7 @@
       <c r="R252"/>
       <c r="S252"/>
     </row>
-    <row r="253" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="253" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="58" t="s">
         <v>87</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>12</v>
       </c>
       <c r="H253" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I253" s="59" t="s">
         <v>179</v>
@@ -10462,7 +10462,7 @@
       <c r="R253"/>
       <c r="S253"/>
     </row>
-    <row r="254" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="254" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="58" t="s">
         <v>88</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>12</v>
       </c>
       <c r="H254" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I254" s="59" t="s">
         <v>179</v>
@@ -10498,7 +10498,7 @@
       <c r="R254"/>
       <c r="S254"/>
     </row>
-    <row r="255" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="255" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="58" t="s">
         <v>76</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>12</v>
       </c>
       <c r="H255" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I255" s="59" t="s">
         <v>179</v>
@@ -10534,7 +10534,7 @@
       <c r="R255"/>
       <c r="S255"/>
     </row>
-    <row r="256" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="256" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="58" t="s">
         <v>20</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>12</v>
       </c>
       <c r="H256" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I256" s="59" t="s">
         <v>179</v>
@@ -10570,7 +10570,7 @@
       <c r="R256"/>
       <c r="S256"/>
     </row>
-    <row r="257" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="257" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="58" t="s">
         <v>107</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>12</v>
       </c>
       <c r="H257" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I257" s="59" t="s">
         <v>108</v>
@@ -10606,7 +10606,7 @@
       <c r="R257"/>
       <c r="S257"/>
     </row>
-    <row r="258" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="258" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="58" t="s">
         <v>109</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>12</v>
       </c>
       <c r="H258" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I258" s="59" t="s">
         <v>108</v>
@@ -10642,7 +10642,7 @@
       <c r="R258"/>
       <c r="S258"/>
     </row>
-    <row r="259" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="259" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="58" t="s">
         <v>87</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>12</v>
       </c>
       <c r="H259" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I259" s="59" t="s">
         <v>108</v>
@@ -10678,7 +10678,7 @@
       <c r="R259"/>
       <c r="S259"/>
     </row>
-    <row r="260" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="260" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="58" t="s">
         <v>88</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>12</v>
       </c>
       <c r="H260" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I260" s="59" t="s">
         <v>108</v>
@@ -10714,7 +10714,7 @@
       <c r="R260"/>
       <c r="S260"/>
     </row>
-    <row r="261" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="261" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="58" t="s">
         <v>18</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>12</v>
       </c>
       <c r="H261" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I261" s="59" t="s">
         <v>111</v>
@@ -10750,7 +10750,7 @@
       <c r="R261"/>
       <c r="S261"/>
     </row>
-    <row r="262" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="262" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="58" t="s">
         <v>71</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>12</v>
       </c>
       <c r="H262" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I262" s="59" t="s">
         <v>111</v>
@@ -10786,7 +10786,7 @@
       <c r="R262"/>
       <c r="S262"/>
     </row>
-    <row r="263" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="263" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="58" t="s">
         <v>87</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>12</v>
       </c>
       <c r="H263" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I263" s="59" t="s">
         <v>111</v>
@@ -10822,7 +10822,7 @@
       <c r="R263"/>
       <c r="S263"/>
     </row>
-    <row r="264" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="264" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="58" t="s">
         <v>89</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>12</v>
       </c>
       <c r="H264" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I264" s="59" t="s">
         <v>111</v>
@@ -10858,7 +10858,7 @@
       <c r="R264"/>
       <c r="S264"/>
     </row>
-    <row r="265" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="265" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="58" t="s">
         <v>90</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>12</v>
       </c>
       <c r="H265" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I265" s="59" t="s">
         <v>111</v>
@@ -10894,7 +10894,7 @@
       <c r="R265"/>
       <c r="S265"/>
     </row>
-    <row r="266" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="266" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="58" t="s">
         <v>112</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>12</v>
       </c>
       <c r="H266" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I266" s="59" t="s">
         <v>114</v>
@@ -10930,7 +10930,7 @@
       <c r="R266"/>
       <c r="S266"/>
     </row>
-    <row r="267" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="267" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="58" t="s">
         <v>115</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>12</v>
       </c>
       <c r="H267" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I267" s="59" t="s">
         <v>114</v>
@@ -10966,7 +10966,7 @@
       <c r="R267"/>
       <c r="S267"/>
     </row>
-    <row r="268" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="268" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="58" t="s">
         <v>87</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>12</v>
       </c>
       <c r="H268" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I268" s="59" t="s">
         <v>114</v>
@@ -11002,7 +11002,7 @@
       <c r="R268"/>
       <c r="S268"/>
     </row>
-    <row r="269" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="269" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="58" t="s">
         <v>76</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>12</v>
       </c>
       <c r="H269" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I269" s="59" t="s">
         <v>114</v>
@@ -11038,7 +11038,7 @@
       <c r="R269"/>
       <c r="S269"/>
     </row>
-    <row r="270" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="270" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="58" t="s">
         <v>88</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>12</v>
       </c>
       <c r="H270" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I270" s="59" t="s">
         <v>114</v>
@@ -11074,7 +11074,7 @@
       <c r="R270"/>
       <c r="S270"/>
     </row>
-    <row r="271" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="271" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="58" t="s">
         <v>20</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>12</v>
       </c>
       <c r="H271" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I271" s="59" t="s">
         <v>114</v>
@@ -11110,7 +11110,7 @@
       <c r="R271"/>
       <c r="S271"/>
     </row>
-    <row r="272" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="272" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="58" t="s">
         <v>87</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>12</v>
       </c>
       <c r="H272" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I272" s="59" t="s">
         <v>117</v>
@@ -11146,7 +11146,7 @@
       <c r="R272"/>
       <c r="S272"/>
     </row>
-    <row r="273" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="273" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="58" t="s">
         <v>76</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>12</v>
       </c>
       <c r="H273" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I273" s="59" t="s">
         <v>117</v>
@@ -11182,7 +11182,7 @@
       <c r="R273"/>
       <c r="S273"/>
     </row>
-    <row r="274" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="274" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="58" t="s">
         <v>88</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>12</v>
       </c>
       <c r="H274" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I274" s="59" t="s">
         <v>117</v>
@@ -11218,7 +11218,7 @@
       <c r="R274"/>
       <c r="S274"/>
     </row>
-    <row r="275" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="275" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="58" t="s">
         <v>20</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>12</v>
       </c>
       <c r="H275" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I275" s="59" t="s">
         <v>117</v>
@@ -11254,7 +11254,7 @@
       <c r="R275"/>
       <c r="S275"/>
     </row>
-    <row r="276" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="276" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="58" t="s">
         <v>76</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>12</v>
       </c>
       <c r="H276" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I276" s="59" t="s">
         <v>118</v>
@@ -11290,7 +11290,7 @@
       <c r="R276"/>
       <c r="S276"/>
     </row>
-    <row r="277" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="277" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="58" t="s">
         <v>20</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>12</v>
       </c>
       <c r="H277" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I277" s="59" t="s">
         <v>118</v>
@@ -11326,7 +11326,7 @@
       <c r="R277"/>
       <c r="S277"/>
     </row>
-    <row r="278" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="278" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="58" t="s">
         <v>71</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>12</v>
       </c>
       <c r="H278" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I278" s="59" t="s">
         <v>180</v>
@@ -11362,7 +11362,7 @@
       <c r="R278"/>
       <c r="S278"/>
     </row>
-    <row r="279" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="279" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="58" t="s">
         <v>90</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>12</v>
       </c>
       <c r="H279" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I279" s="59" t="s">
         <v>180</v>
@@ -11398,7 +11398,7 @@
       <c r="R279"/>
       <c r="S279"/>
     </row>
-    <row r="280" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="280" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="58" t="s">
         <v>76</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>12</v>
       </c>
       <c r="H280" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I280" s="59" t="s">
         <v>180</v>
@@ -11434,7 +11434,7 @@
       <c r="R280"/>
       <c r="S280"/>
     </row>
-    <row r="281" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="281" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="58" t="s">
         <v>20</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>12</v>
       </c>
       <c r="H281" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I281" s="59" t="s">
         <v>180</v>
@@ -11470,7 +11470,7 @@
       <c r="R281"/>
       <c r="S281"/>
     </row>
-    <row r="282" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="282" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="58" t="s">
         <v>89</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>12</v>
       </c>
       <c r="H282" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I282" s="59" t="s">
         <v>180</v>
@@ -11506,7 +11506,7 @@
       <c r="R282"/>
       <c r="S282"/>
     </row>
-    <row r="283" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="283" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="58" t="s">
         <v>87</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>12</v>
       </c>
       <c r="H283" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I283" s="59" t="s">
         <v>181</v>
@@ -11542,7 +11542,7 @@
       <c r="R283"/>
       <c r="S283"/>
     </row>
-    <row r="284" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="284" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="58" t="s">
         <v>88</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>12</v>
       </c>
       <c r="H284" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I284" s="59" t="s">
         <v>181</v>
@@ -11578,7 +11578,7 @@
       <c r="R284"/>
       <c r="S284"/>
     </row>
-    <row r="285" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="285" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="58" t="s">
         <v>112</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>12</v>
       </c>
       <c r="H285" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I285" s="59" t="s">
         <v>182</v>
@@ -11614,7 +11614,7 @@
       <c r="R285"/>
       <c r="S285"/>
     </row>
-    <row r="286" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="286" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="58" t="s">
         <v>87</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>12</v>
       </c>
       <c r="H286" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I286" s="59" t="s">
         <v>182</v>
@@ -11650,7 +11650,7 @@
       <c r="R286"/>
       <c r="S286"/>
     </row>
-    <row r="287" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="287" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="58" t="s">
         <v>88</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>12</v>
       </c>
       <c r="H287" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I287" s="59" t="s">
         <v>182</v>
@@ -11686,7 +11686,7 @@
       <c r="R287"/>
       <c r="S287"/>
     </row>
-    <row r="288" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="288" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="58" t="s">
         <v>76</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>12</v>
       </c>
       <c r="H288" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I288" s="59" t="s">
         <v>105</v>
@@ -11722,7 +11722,7 @@
       <c r="R288"/>
       <c r="S288"/>
     </row>
-    <row r="289" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="289" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="58" t="s">
         <v>20</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>12</v>
       </c>
       <c r="H289" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I289" s="59" t="s">
         <v>105</v>
@@ -11758,7 +11758,7 @@
       <c r="R289"/>
       <c r="S289"/>
     </row>
-    <row r="290" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="290" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="58" t="s">
         <v>87</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>12</v>
       </c>
       <c r="H290" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I290" s="59" t="s">
         <v>183</v>
@@ -11794,7 +11794,7 @@
       <c r="R290"/>
       <c r="S290"/>
     </row>
-    <row r="291" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="291" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="58" t="s">
         <v>88</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>12</v>
       </c>
       <c r="H291" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I291" s="59" t="s">
         <v>183</v>
@@ -11830,7 +11830,7 @@
       <c r="R291"/>
       <c r="S291"/>
     </row>
-    <row r="292" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="292" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="58" t="s">
         <v>76</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>12</v>
       </c>
       <c r="H292" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I292" s="59" t="s">
         <v>184</v>
@@ -11866,7 +11866,7 @@
       <c r="R292"/>
       <c r="S292"/>
     </row>
-    <row r="293" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="293" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="58" t="s">
         <v>20</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>12</v>
       </c>
       <c r="H293" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I293" s="59" t="s">
         <v>184</v>
@@ -11902,7 +11902,7 @@
       <c r="R293"/>
       <c r="S293"/>
     </row>
-    <row r="294" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="294" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="58" t="s">
         <v>28</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>12</v>
       </c>
       <c r="H294" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I294" s="59" t="s">
         <v>185</v>
@@ -11938,7 +11938,7 @@
       <c r="R294"/>
       <c r="S294"/>
     </row>
-    <row r="295" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="295" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="58" t="s">
         <v>97</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>12</v>
       </c>
       <c r="H295" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I295" s="59" t="s">
         <v>185</v>
@@ -11974,7 +11974,7 @@
       <c r="R295"/>
       <c r="S295"/>
     </row>
-    <row r="296" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="296" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="58" t="s">
         <v>76</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>12</v>
       </c>
       <c r="H296" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I296" s="59" t="s">
         <v>186</v>
@@ -12010,7 +12010,7 @@
       <c r="R296"/>
       <c r="S296"/>
     </row>
-    <row r="297" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="297" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="58" t="s">
         <v>20</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>12</v>
       </c>
       <c r="H297" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I297" s="59" t="s">
         <v>186</v>
@@ -12046,7 +12046,7 @@
       <c r="R297"/>
       <c r="S297"/>
     </row>
-    <row r="298" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="298" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="58" t="s">
         <v>119</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>12</v>
       </c>
       <c r="H298" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I298" s="59" t="s">
         <v>118</v>
@@ -12082,7 +12082,7 @@
       <c r="R298"/>
       <c r="S298"/>
     </row>
-    <row r="299" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="299" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="58" t="s">
         <v>88</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>12</v>
       </c>
       <c r="H299" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I299" s="59" t="s">
         <v>122</v>
@@ -12118,7 +12118,7 @@
       <c r="R299"/>
       <c r="S299"/>
     </row>
-    <row r="300" spans="1:19" s="10" customFormat="1" ht="15.6" customHeight="1">
+    <row r="300" spans="1:19" s="10" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="73" t="s">
         <v>26</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>12</v>
       </c>
       <c r="H300" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I300" s="59" t="s">
         <v>122</v>
@@ -12154,7 +12154,7 @@
       <c r="R300"/>
       <c r="S300"/>
     </row>
-    <row r="301" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="301" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="58" t="s">
         <v>123</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>12</v>
       </c>
       <c r="H301" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I301" s="59" t="s">
         <v>125</v>
@@ -12190,7 +12190,7 @@
       <c r="R301"/>
       <c r="S301"/>
     </row>
-    <row r="302" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="302" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="58" t="s">
         <v>33</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>12</v>
       </c>
       <c r="H302" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I302" s="58" t="s">
         <v>82</v>
@@ -12226,7 +12226,7 @@
       <c r="R302"/>
       <c r="S302"/>
     </row>
-    <row r="303" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="303" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B303" s="12"/>
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
@@ -12241,7 +12241,7 @@
       <c r="P303" s="11"/>
       <c r="Q303" s="11"/>
     </row>
-    <row r="304" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="304" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="56" t="s">
         <v>1</v>
       </c>
@@ -12262,7 +12262,7 @@
       <c r="P304" s="11"/>
       <c r="Q304" s="11"/>
     </row>
-    <row r="305" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="305" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="60" t="s">
         <v>3</v>
       </c>
@@ -12283,7 +12283,7 @@
       <c r="P305" s="11"/>
       <c r="Q305" s="11"/>
     </row>
-    <row r="306" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="306" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="60" t="s">
         <v>11</v>
       </c>
@@ -12304,7 +12304,7 @@
       <c r="P306" s="11"/>
       <c r="Q306" s="11"/>
     </row>
-    <row r="307" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="307" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="60" t="s">
         <v>4</v>
       </c>
@@ -12325,7 +12325,7 @@
       <c r="P307" s="11"/>
       <c r="Q307" s="11"/>
     </row>
-    <row r="308" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="308" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="60" t="s">
         <v>2</v>
       </c>
@@ -12346,7 +12346,7 @@
       <c r="P308" s="11"/>
       <c r="Q308" s="11"/>
     </row>
-    <row r="309" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="309" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="60" t="s">
         <v>6</v>
       </c>
@@ -12367,7 +12367,7 @@
       <c r="P309" s="11"/>
       <c r="Q309" s="11"/>
     </row>
-    <row r="310" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="310" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="64" t="s">
         <v>7</v>
       </c>
@@ -12388,7 +12388,7 @@
       <c r="P310" s="11"/>
       <c r="Q310" s="11"/>
     </row>
-    <row r="311" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="311" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="64" t="s">
         <v>8</v>
       </c>
@@ -12429,7 +12429,7 @@
       <c r="T311" s="13"/>
       <c r="U311" s="8"/>
     </row>
-    <row r="312" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="312" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="63" t="str">
         <f>B304</f>
         <v>treatment of fuel cell balance of plant, 1MWe, AEC</v>
@@ -12466,7 +12466,7 @@
       <c r="P312" s="11"/>
       <c r="Q312" s="11"/>
     </row>
-    <row r="313" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="313" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="63" t="s">
         <v>242</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>12</v>
       </c>
       <c r="H313" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I313" s="58"/>
       <c r="K313"/>
@@ -12500,7 +12500,7 @@
       <c r="R313"/>
       <c r="S313"/>
     </row>
-    <row r="314" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="314" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="63" t="s">
         <v>499</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>12</v>
       </c>
       <c r="H314" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I314" s="58"/>
       <c r="K314"/>
@@ -12534,7 +12534,7 @@
       <c r="R314"/>
       <c r="S314"/>
     </row>
-    <row r="315" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="315" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="58" t="s">
         <v>244</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>12</v>
       </c>
       <c r="H315" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I315" s="58"/>
       <c r="K315"/>
@@ -12568,7 +12568,7 @@
       <c r="R315"/>
       <c r="S315"/>
     </row>
-    <row r="316" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="316" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="58" t="s">
         <v>271</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>12</v>
       </c>
       <c r="H316" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I316" s="58"/>
       <c r="K316"/>
@@ -12602,7 +12602,7 @@
       <c r="R316"/>
       <c r="S316"/>
     </row>
-    <row r="317" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="317" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="58" t="s">
         <v>259</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>12</v>
       </c>
       <c r="H317" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I317" s="58"/>
       <c r="K317"/>
@@ -12636,7 +12636,7 @@
       <c r="R317"/>
       <c r="S317"/>
     </row>
-    <row r="318" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="318" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="58" t="s">
         <v>260</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>12</v>
       </c>
       <c r="H318" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I318" s="58"/>
       <c r="K318"/>
@@ -12670,7 +12670,7 @@
       <c r="R318"/>
       <c r="S318"/>
     </row>
-    <row r="319" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="319" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="58" t="s">
         <v>262</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>12</v>
       </c>
       <c r="H319" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I319" s="58"/>
       <c r="K319"/>
@@ -12704,7 +12704,7 @@
       <c r="R319"/>
       <c r="S319"/>
     </row>
-    <row r="320" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="320" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="58" t="s">
         <v>501</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>12</v>
       </c>
       <c r="H320" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I320" s="58"/>
       <c r="K320"/>
@@ -12738,7 +12738,7 @@
       <c r="R320"/>
       <c r="S320"/>
     </row>
-    <row r="321" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="321" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="58" t="s">
         <v>246</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>12</v>
       </c>
       <c r="H321" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I321" s="58"/>
       <c r="K321"/>
@@ -12772,7 +12772,7 @@
       <c r="R321"/>
       <c r="S321"/>
     </row>
-    <row r="322" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="322" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="58" t="s">
         <v>248</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>12</v>
       </c>
       <c r="H322" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I322" s="58"/>
       <c r="K322"/>
@@ -12806,7 +12806,7 @@
       <c r="R322"/>
       <c r="S322"/>
     </row>
-    <row r="323" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="323" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="58" t="s">
         <v>498</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>12</v>
       </c>
       <c r="H323" s="58" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I323" s="58"/>
       <c r="K323"/>
@@ -12840,7 +12840,7 @@
       <c r="R323"/>
       <c r="S323"/>
     </row>
-    <row r="324" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="324" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B324" s="12"/>
       <c r="L324" s="11"/>
       <c r="M324" s="11"/>
@@ -12849,7 +12849,7 @@
       <c r="P324" s="11"/>
       <c r="Q324" s="11"/>
     </row>
-    <row r="325" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="325" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="75" t="s">
         <v>1</v>
       </c>
@@ -12870,7 +12870,7 @@
       <c r="P325" s="11"/>
       <c r="Q325" s="11"/>
     </row>
-    <row r="326" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="326" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="79" t="s">
         <v>3</v>
       </c>
@@ -12891,7 +12891,7 @@
       <c r="P326" s="11"/>
       <c r="Q326" s="11"/>
     </row>
-    <row r="327" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="327" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="79" t="s">
         <v>11</v>
       </c>
@@ -12912,7 +12912,7 @@
       <c r="P327" s="11"/>
       <c r="Q327" s="11"/>
     </row>
-    <row r="328" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="328" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="79" t="s">
         <v>4</v>
       </c>
@@ -12933,7 +12933,7 @@
       <c r="P328" s="11"/>
       <c r="Q328" s="11"/>
     </row>
-    <row r="329" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="329" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="79" t="s">
         <v>2</v>
       </c>
@@ -12954,7 +12954,7 @@
       <c r="P329" s="11"/>
       <c r="Q329" s="11"/>
     </row>
-    <row r="330" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="330" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="79" t="s">
         <v>6</v>
       </c>
@@ -12977,7 +12977,7 @@
       <c r="P330" s="11"/>
       <c r="Q330" s="11"/>
     </row>
-    <row r="331" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="331" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="83" t="s">
         <v>7</v>
       </c>
@@ -12998,7 +12998,7 @@
       <c r="P331" s="11"/>
       <c r="Q331" s="11"/>
     </row>
-    <row r="332" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="332" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="83" t="s">
         <v>8</v>
       </c>
@@ -13039,7 +13039,7 @@
       <c r="T332" s="13"/>
       <c r="U332" s="8"/>
     </row>
-    <row r="333" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="333" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="82" t="str">
         <f>B325</f>
         <v>hydrogen production, gaseous, 1 bar, from SOEC electrolysis, from grid electricity</v>
@@ -13078,7 +13078,7 @@
       <c r="Q333" s="11"/>
       <c r="U333"/>
     </row>
-    <row r="334" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="334" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="82" t="str">
         <f>B367</f>
         <v>electrolyzer production, 1MWe, SOEC, Stack</v>
@@ -13101,7 +13101,7 @@
         <v>12</v>
       </c>
       <c r="H334" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I334" s="77" t="s">
         <v>491</v>
@@ -13116,7 +13116,7 @@
       <c r="R334"/>
       <c r="S334"/>
     </row>
-    <row r="335" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="335" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="82" t="str">
         <f>B404</f>
         <v>electrolyzer production, 1MWe, SOEC, Balance of Plant</v>
@@ -13139,7 +13139,7 @@
         <v>12</v>
       </c>
       <c r="H335" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I335" s="77" t="s">
         <v>51</v>
@@ -13154,7 +13154,7 @@
       <c r="R335"/>
       <c r="S335"/>
     </row>
-    <row r="336" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="336" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="82" t="s">
         <v>273</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>12</v>
       </c>
       <c r="H336" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I336" s="77" t="s">
         <v>254</v>
@@ -13191,7 +13191,7 @@
       <c r="R336"/>
       <c r="S336"/>
     </row>
-    <row r="337" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="337" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="82" t="s">
         <v>275</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>12</v>
       </c>
       <c r="H337" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I337" s="77" t="s">
         <v>266</v>
@@ -13228,7 +13228,7 @@
       <c r="R337"/>
       <c r="S337"/>
     </row>
-    <row r="338" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="338" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="79" t="s">
         <v>52</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>12</v>
       </c>
       <c r="H338" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I338" s="78" t="s">
         <v>494</v>
@@ -13265,7 +13265,7 @@
       <c r="R338"/>
       <c r="S338"/>
     </row>
-    <row r="339" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="339" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="79" t="s">
         <v>53</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>12</v>
       </c>
       <c r="H339" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I339" s="78" t="s">
         <v>189</v>
@@ -13301,7 +13301,7 @@
       <c r="R339"/>
       <c r="S339"/>
     </row>
-    <row r="340" spans="1:19" s="10" customFormat="1" ht="15.75">
+    <row r="340" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="79" t="s">
         <v>37</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>12</v>
       </c>
       <c r="H340" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I340" s="86" t="s">
         <v>56</v>
@@ -13337,7 +13337,7 @@
       <c r="R340"/>
       <c r="S340"/>
     </row>
-    <row r="341" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="341" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="87" t="s">
         <v>40</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>14</v>
       </c>
       <c r="H341" s="87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I341" s="88"/>
       <c r="K341"/>
@@ -13369,7 +13369,7 @@
       <c r="R341" s="15"/>
       <c r="S341"/>
     </row>
-    <row r="342" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="342" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="89" t="s">
         <v>506</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>14</v>
       </c>
       <c r="H342" s="87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I342" s="89" t="s">
         <v>514</v>
@@ -13437,7 +13437,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="343" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="343" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="89" t="s">
         <v>508</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>14</v>
       </c>
       <c r="H343" s="87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I343" s="89" t="s">
         <v>515</v>
@@ -13495,7 +13495,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="344" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="344" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="89" t="s">
         <v>511</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>14</v>
       </c>
       <c r="H344" s="87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I344" s="89" t="s">
         <v>515</v>
@@ -13553,7 +13553,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="345" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="345" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B345" s="12"/>
       <c r="L345" s="11"/>
       <c r="M345" s="11"/>
@@ -13562,7 +13562,7 @@
       <c r="P345" s="11"/>
       <c r="Q345" s="11"/>
     </row>
-    <row r="346" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="346" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="75" t="s">
         <v>1</v>
       </c>
@@ -13583,7 +13583,7 @@
       <c r="P346" s="11"/>
       <c r="Q346" s="11"/>
     </row>
-    <row r="347" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="347" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="79" t="s">
         <v>3</v>
       </c>
@@ -13604,7 +13604,7 @@
       <c r="P347" s="11"/>
       <c r="Q347" s="11"/>
     </row>
-    <row r="348" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="348" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="79" t="s">
         <v>11</v>
       </c>
@@ -13625,7 +13625,7 @@
       <c r="P348" s="11"/>
       <c r="Q348" s="11"/>
     </row>
-    <row r="349" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="349" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="79" t="s">
         <v>4</v>
       </c>
@@ -13646,7 +13646,7 @@
       <c r="P349" s="11"/>
       <c r="Q349" s="11"/>
     </row>
-    <row r="350" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="350" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="79" t="s">
         <v>2</v>
       </c>
@@ -13667,7 +13667,7 @@
       <c r="P350" s="11"/>
       <c r="Q350" s="11"/>
     </row>
-    <row r="351" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="351" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="79" t="s">
         <v>6</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="P351" s="11"/>
       <c r="Q351" s="11"/>
     </row>
-    <row r="352" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="352" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="83" t="s">
         <v>7</v>
       </c>
@@ -13711,7 +13711,7 @@
       <c r="P352" s="11"/>
       <c r="Q352" s="11"/>
     </row>
-    <row r="353" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="353" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="83" t="s">
         <v>8</v>
       </c>
@@ -13752,7 +13752,7 @@
       <c r="T353" s="13"/>
       <c r="U353" s="8"/>
     </row>
-    <row r="354" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="354" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="82" t="str">
         <f>B346</f>
         <v>hydrogen production, gaseous, 1 bar, from SOEC electrolysis, with steam input, from grid electricity</v>
@@ -13791,7 +13791,7 @@
       <c r="Q354" s="11"/>
       <c r="U354"/>
     </row>
-    <row r="355" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="355" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="82" t="s">
         <v>190</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>12</v>
       </c>
       <c r="H355" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I355" s="77" t="s">
         <v>491</v>
@@ -13828,7 +13828,7 @@
       <c r="R355"/>
       <c r="S355"/>
     </row>
-    <row r="356" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="356" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="82" t="s">
         <v>216</v>
       </c>
@@ -13850,7 +13850,7 @@
         <v>12</v>
       </c>
       <c r="H356" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I356" s="77" t="s">
         <v>51</v>
@@ -13865,7 +13865,7 @@
       <c r="R356"/>
       <c r="S356"/>
     </row>
-    <row r="357" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="357" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="82" t="s">
         <v>273</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>12</v>
       </c>
       <c r="H357" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I357" s="77" t="s">
         <v>254</v>
@@ -13902,7 +13902,7 @@
       <c r="R357"/>
       <c r="S357"/>
     </row>
-    <row r="358" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="358" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="82" t="s">
         <v>275</v>
       </c>
@@ -13924,7 +13924,7 @@
         <v>12</v>
       </c>
       <c r="H358" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I358" s="77" t="s">
         <v>266</v>
@@ -13939,7 +13939,7 @@
       <c r="R358"/>
       <c r="S358"/>
     </row>
-    <row r="359" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="359" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="79" t="s">
         <v>52</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>12</v>
       </c>
       <c r="H359" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I359" s="78" t="s">
         <v>494</v>
@@ -13976,7 +13976,7 @@
       <c r="R359"/>
       <c r="S359"/>
     </row>
-    <row r="360" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="360" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="79" t="s">
         <v>53</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>12</v>
       </c>
       <c r="H360" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I360" s="78" t="s">
         <v>496</v>
@@ -14012,7 +14012,7 @@
       <c r="R360"/>
       <c r="S360"/>
     </row>
-    <row r="361" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="361" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="79" t="s">
         <v>37</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>12</v>
       </c>
       <c r="H361" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I361" s="86" t="s">
         <v>56</v>
@@ -14048,7 +14048,7 @@
       <c r="R361"/>
       <c r="S361"/>
     </row>
-    <row r="362" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="362" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="87" t="s">
         <v>40</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>14</v>
       </c>
       <c r="H362" s="87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I362" s="88"/>
       <c r="K362"/>
@@ -14080,7 +14080,7 @@
       <c r="R362" s="15"/>
       <c r="S362"/>
     </row>
-    <row r="363" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="363" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="89" t="s">
         <v>506</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>14</v>
       </c>
       <c r="H363" s="87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I363" s="89" t="s">
         <v>514</v>
@@ -14148,7 +14148,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="364" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="364" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="89" t="s">
         <v>508</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>14</v>
       </c>
       <c r="H364" s="87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I364" s="89" t="s">
         <v>515</v>
@@ -14206,7 +14206,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="365" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="365" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="89" t="s">
         <v>511</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>14</v>
       </c>
       <c r="H365" s="87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I365" s="89" t="s">
         <v>515</v>
@@ -14264,7 +14264,7 @@
         <v>0.24634371748562628</v>
       </c>
     </row>
-    <row r="366" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="366" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B366" s="12"/>
       <c r="L366" s="11"/>
       <c r="M366" s="11"/>
@@ -14273,7 +14273,7 @@
       <c r="P366" s="11"/>
       <c r="Q366" s="11"/>
     </row>
-    <row r="367" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="367" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="75" t="s">
         <v>1</v>
       </c>
@@ -14294,7 +14294,7 @@
       <c r="P367" s="11"/>
       <c r="Q367" s="11"/>
     </row>
-    <row r="368" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="368" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="79" t="s">
         <v>3</v>
       </c>
@@ -14315,7 +14315,7 @@
       <c r="P368" s="11"/>
       <c r="Q368" s="11"/>
     </row>
-    <row r="369" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="369" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="79" t="s">
         <v>11</v>
       </c>
@@ -14336,7 +14336,7 @@
       <c r="P369" s="11"/>
       <c r="Q369" s="11"/>
     </row>
-    <row r="370" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="370" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="79" t="s">
         <v>4</v>
       </c>
@@ -14357,7 +14357,7 @@
       <c r="P370" s="11"/>
       <c r="Q370" s="11"/>
     </row>
-    <row r="371" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="371" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="79" t="s">
         <v>2</v>
       </c>
@@ -14378,7 +14378,7 @@
       <c r="P371" s="11"/>
       <c r="Q371" s="11"/>
     </row>
-    <row r="372" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="372" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="79" t="s">
         <v>6</v>
       </c>
@@ -14399,7 +14399,7 @@
       <c r="P372" s="11"/>
       <c r="Q372" s="11"/>
     </row>
-    <row r="373" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="373" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="83" t="s">
         <v>7</v>
       </c>
@@ -14420,7 +14420,7 @@
       <c r="P373" s="11"/>
       <c r="Q373" s="11"/>
     </row>
-    <row r="374" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="374" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="83" t="s">
         <v>8</v>
       </c>
@@ -14461,7 +14461,7 @@
       <c r="T374" s="13"/>
       <c r="U374" s="8"/>
     </row>
-    <row r="375" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="375" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="82" t="str">
         <f>B367</f>
         <v>electrolyzer production, 1MWe, SOEC, Stack</v>
@@ -14498,7 +14498,7 @@
       <c r="P375" s="11"/>
       <c r="Q375" s="11"/>
     </row>
-    <row r="376" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="376" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="77" t="s">
         <v>76</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>12</v>
       </c>
       <c r="H376" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I376" s="77" t="s">
         <v>191</v>
@@ -14534,7 +14534,7 @@
       <c r="R376"/>
       <c r="S376"/>
     </row>
-    <row r="377" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="377" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="77" t="s">
         <v>20</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>12</v>
       </c>
       <c r="H377" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I377" s="77" t="s">
         <v>191</v>
@@ -14570,7 +14570,7 @@
       <c r="R377"/>
       <c r="S377"/>
     </row>
-    <row r="378" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="378" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="77" t="s">
         <v>192</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>12</v>
       </c>
       <c r="H378" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I378" s="77" t="s">
         <v>194</v>
@@ -14606,7 +14606,7 @@
       <c r="R378"/>
       <c r="S378"/>
     </row>
-    <row r="379" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="379" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="77" t="s">
         <v>168</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>12</v>
       </c>
       <c r="H379" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I379" s="77" t="s">
         <v>194</v>
@@ -14642,7 +14642,7 @@
       <c r="R379"/>
       <c r="S379"/>
     </row>
-    <row r="380" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="380" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="77" t="s">
         <v>173</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>12</v>
       </c>
       <c r="H380" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I380" s="77" t="s">
         <v>195</v>
@@ -14678,7 +14678,7 @@
       <c r="R380"/>
       <c r="S380"/>
     </row>
-    <row r="381" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="381" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="77" t="s">
         <v>196</v>
       </c>
@@ -14699,7 +14699,7 @@
         <v>12</v>
       </c>
       <c r="H381" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I381" s="77" t="s">
         <v>195</v>
@@ -14714,7 +14714,7 @@
       <c r="R381"/>
       <c r="S381"/>
     </row>
-    <row r="382" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="382" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="77" t="s">
         <v>198</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>12</v>
       </c>
       <c r="H382" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I382" s="77" t="s">
         <v>194</v>
@@ -14750,7 +14750,7 @@
       <c r="R382"/>
       <c r="S382"/>
     </row>
-    <row r="383" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="383" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="77" t="s">
         <v>196</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>12</v>
       </c>
       <c r="H383" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I383" s="77" t="s">
         <v>194</v>
@@ -14786,7 +14786,7 @@
       <c r="R383"/>
       <c r="S383"/>
     </row>
-    <row r="384" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="384" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="77" t="s">
         <v>200</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>12</v>
       </c>
       <c r="H384" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I384" s="77" t="s">
         <v>202</v>
@@ -14823,7 +14823,7 @@
       <c r="R384"/>
       <c r="S384"/>
     </row>
-    <row r="385" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="385" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="77" t="s">
         <v>203</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>12</v>
       </c>
       <c r="H385" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I385" s="77" t="s">
         <v>202</v>
@@ -14860,7 +14860,7 @@
       <c r="R385"/>
       <c r="S385"/>
     </row>
-    <row r="386" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="386" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="77" t="s">
         <v>205</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>12</v>
       </c>
       <c r="H386" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I386" s="77" t="s">
         <v>208</v>
@@ -14896,7 +14896,7 @@
       <c r="R386"/>
       <c r="S386"/>
     </row>
-    <row r="387" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="387" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="77" t="s">
         <v>209</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>12</v>
       </c>
       <c r="H387" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I387" s="77" t="s">
         <v>208</v>
@@ -14932,7 +14932,7 @@
       <c r="R387"/>
       <c r="S387"/>
     </row>
-    <row r="388" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="388" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="77" t="s">
         <v>211</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>12</v>
       </c>
       <c r="H388" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I388" s="77" t="s">
         <v>208</v>
@@ -14968,7 +14968,7 @@
       <c r="R388"/>
       <c r="S388"/>
     </row>
-    <row r="389" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="389" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="77" t="s">
         <v>213</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>12</v>
       </c>
       <c r="H389" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I389" s="77" t="s">
         <v>208</v>
@@ -15004,7 +15004,7 @@
       <c r="R389"/>
       <c r="S389"/>
     </row>
-    <row r="390" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="390" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="77" t="s">
         <v>168</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>12</v>
       </c>
       <c r="H390" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I390" s="77" t="s">
         <v>215</v>
@@ -15040,7 +15040,7 @@
       <c r="R390"/>
       <c r="S390"/>
     </row>
-    <row r="391" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="391" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="77" t="s">
         <v>33</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>12</v>
       </c>
       <c r="H391" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I391" s="77" t="s">
         <v>82</v>
@@ -15076,7 +15076,7 @@
       <c r="R391"/>
       <c r="S391"/>
     </row>
-    <row r="392" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="392" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B392" s="11"/>
       <c r="C392" s="9"/>
       <c r="G392" s="9"/>
@@ -15088,7 +15088,7 @@
       <c r="P392" s="11"/>
       <c r="Q392" s="11"/>
     </row>
-    <row r="393" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="393" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="75" t="s">
         <v>1</v>
       </c>
@@ -15109,7 +15109,7 @@
       <c r="P393" s="11"/>
       <c r="Q393" s="11"/>
     </row>
-    <row r="394" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="394" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="79" t="s">
         <v>3</v>
       </c>
@@ -15130,7 +15130,7 @@
       <c r="P394" s="11"/>
       <c r="Q394" s="11"/>
     </row>
-    <row r="395" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="395" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="79" t="s">
         <v>11</v>
       </c>
@@ -15151,7 +15151,7 @@
       <c r="P395" s="11"/>
       <c r="Q395" s="11"/>
     </row>
-    <row r="396" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="396" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="79" t="s">
         <v>4</v>
       </c>
@@ -15172,7 +15172,7 @@
       <c r="P396" s="11"/>
       <c r="Q396" s="11"/>
     </row>
-    <row r="397" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="397" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="79" t="s">
         <v>2</v>
       </c>
@@ -15193,7 +15193,7 @@
       <c r="P397" s="11"/>
       <c r="Q397" s="11"/>
     </row>
-    <row r="398" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="398" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="79" t="s">
         <v>6</v>
       </c>
@@ -15214,7 +15214,7 @@
       <c r="P398" s="11"/>
       <c r="Q398" s="11"/>
     </row>
-    <row r="399" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="399" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="83" t="s">
         <v>7</v>
       </c>
@@ -15235,7 +15235,7 @@
       <c r="P399" s="11"/>
       <c r="Q399" s="11"/>
     </row>
-    <row r="400" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="400" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="83" t="s">
         <v>8</v>
       </c>
@@ -15276,7 +15276,7 @@
       <c r="T400" s="13"/>
       <c r="U400" s="8"/>
     </row>
-    <row r="401" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="401" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="82" t="str">
         <f>B393</f>
         <v>treatment of fuel cell stack, 1MWe, SOEC</v>
@@ -15313,7 +15313,7 @@
       <c r="P401" s="11"/>
       <c r="Q401" s="11"/>
     </row>
-    <row r="402" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="402" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="82" t="s">
         <v>242</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>12</v>
       </c>
       <c r="H402" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I402" s="77"/>
       <c r="K402"/>
@@ -15347,7 +15347,7 @@
       <c r="R402"/>
       <c r="S402"/>
     </row>
-    <row r="403" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="403" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B403" s="12"/>
       <c r="L403" s="11"/>
       <c r="M403" s="11"/>
@@ -15356,7 +15356,7 @@
       <c r="P403" s="11"/>
       <c r="Q403" s="11"/>
     </row>
-    <row r="404" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="404" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="75" t="s">
         <v>1</v>
       </c>
@@ -15377,7 +15377,7 @@
       <c r="P404" s="11"/>
       <c r="Q404" s="11"/>
     </row>
-    <row r="405" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="405" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="79" t="s">
         <v>3</v>
       </c>
@@ -15398,7 +15398,7 @@
       <c r="P405" s="11"/>
       <c r="Q405" s="11"/>
     </row>
-    <row r="406" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="406" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="79" t="s">
         <v>11</v>
       </c>
@@ -15419,7 +15419,7 @@
       <c r="P406" s="11"/>
       <c r="Q406" s="11"/>
     </row>
-    <row r="407" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="407" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="79" t="s">
         <v>4</v>
       </c>
@@ -15440,7 +15440,7 @@
       <c r="P407" s="11"/>
       <c r="Q407" s="11"/>
     </row>
-    <row r="408" spans="1:21" s="10" customFormat="1" ht="16.350000000000001" customHeight="1">
+    <row r="408" spans="1:21" s="10" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="79" t="s">
         <v>2</v>
       </c>
@@ -15461,7 +15461,7 @@
       <c r="P408" s="11"/>
       <c r="Q408" s="11"/>
     </row>
-    <row r="409" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="409" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="79" t="s">
         <v>6</v>
       </c>
@@ -15483,7 +15483,7 @@
       <c r="P409" s="11"/>
       <c r="Q409" s="11"/>
     </row>
-    <row r="410" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="410" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="83" t="s">
         <v>7</v>
       </c>
@@ -15503,7 +15503,7 @@
       <c r="P410" s="11"/>
       <c r="Q410" s="11"/>
     </row>
-    <row r="411" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="411" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="83" t="s">
         <v>8</v>
       </c>
@@ -15544,7 +15544,7 @@
       <c r="T411" s="13"/>
       <c r="U411" s="8"/>
     </row>
-    <row r="412" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="412" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="82" t="str">
         <f>B404</f>
         <v>electrolyzer production, 1MWe, SOEC, Balance of Plant</v>
@@ -15580,7 +15580,7 @@
       <c r="P412" s="11"/>
       <c r="Q412" s="11"/>
     </row>
-    <row r="413" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="413" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="77" t="s">
         <v>76</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>12</v>
       </c>
       <c r="H413" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I413" s="78" t="s">
         <v>218</v>
@@ -15616,7 +15616,7 @@
       <c r="R413"/>
       <c r="S413"/>
     </row>
-    <row r="414" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="414" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="77" t="s">
         <v>20</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>12</v>
       </c>
       <c r="H414" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I414" s="78" t="s">
         <v>218</v>
@@ -15652,7 +15652,7 @@
       <c r="R414"/>
       <c r="S414"/>
     </row>
-    <row r="415" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="415" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="82" t="s">
         <v>18</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>12</v>
       </c>
       <c r="H415" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I415" s="78" t="s">
         <v>219</v>
@@ -15688,7 +15688,7 @@
       <c r="R415"/>
       <c r="S415"/>
     </row>
-    <row r="416" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="416" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="82" t="s">
         <v>71</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>12</v>
       </c>
       <c r="H416" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I416" s="78" t="s">
         <v>219</v>
@@ -15724,7 +15724,7 @@
       <c r="R416"/>
       <c r="S416"/>
     </row>
-    <row r="417" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="417" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="82" t="s">
         <v>87</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>12</v>
       </c>
       <c r="H417" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I417" s="78" t="s">
         <v>219</v>
@@ -15761,7 +15761,7 @@
       <c r="R417"/>
       <c r="S417"/>
     </row>
-    <row r="418" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="418" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="82" t="s">
         <v>89</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>12</v>
       </c>
       <c r="H418" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I418" s="78" t="s">
         <v>219</v>
@@ -15798,7 +15798,7 @@
       <c r="R418"/>
       <c r="S418"/>
     </row>
-    <row r="419" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="419" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="82" t="s">
         <v>90</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>12</v>
       </c>
       <c r="H419" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I419" s="78" t="s">
         <v>219</v>
@@ -15835,7 +15835,7 @@
       <c r="R419"/>
       <c r="S419"/>
     </row>
-    <row r="420" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="420" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="82" t="s">
         <v>112</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>12</v>
       </c>
       <c r="H420" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I420" s="78" t="s">
         <v>220</v>
@@ -15872,7 +15872,7 @@
       <c r="R420"/>
       <c r="S420"/>
     </row>
-    <row r="421" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="421" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="82" t="s">
         <v>115</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>12</v>
       </c>
       <c r="H421" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I421" s="78" t="s">
         <v>220</v>
@@ -15909,7 +15909,7 @@
       <c r="R421"/>
       <c r="S421"/>
     </row>
-    <row r="422" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="422" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="82" t="s">
         <v>87</v>
       </c>
@@ -15931,7 +15931,7 @@
         <v>12</v>
       </c>
       <c r="H422" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I422" s="78" t="s">
         <v>220</v>
@@ -15946,7 +15946,7 @@
       <c r="R422"/>
       <c r="S422"/>
     </row>
-    <row r="423" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="423" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="82" t="s">
         <v>76</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>12</v>
       </c>
       <c r="H423" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I423" s="78" t="s">
         <v>220</v>
@@ -15983,7 +15983,7 @@
       <c r="R423"/>
       <c r="S423"/>
     </row>
-    <row r="424" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="424" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="82" t="s">
         <v>88</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>12</v>
       </c>
       <c r="H424" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I424" s="78" t="s">
         <v>220</v>
@@ -16020,7 +16020,7 @@
       <c r="R424"/>
       <c r="S424"/>
     </row>
-    <row r="425" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="425" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="82" t="s">
         <v>20</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>12</v>
       </c>
       <c r="H425" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I425" s="78" t="s">
         <v>220</v>
@@ -16057,7 +16057,7 @@
       <c r="R425"/>
       <c r="S425"/>
     </row>
-    <row r="426" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="426" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="82" t="s">
         <v>87</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>12</v>
       </c>
       <c r="H426" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I426" s="78" t="s">
         <v>221</v>
@@ -16094,7 +16094,7 @@
       <c r="R426"/>
       <c r="S426"/>
     </row>
-    <row r="427" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="427" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="82" t="s">
         <v>76</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>12</v>
       </c>
       <c r="H427" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I427" s="78" t="s">
         <v>221</v>
@@ -16131,7 +16131,7 @@
       <c r="R427"/>
       <c r="S427"/>
     </row>
-    <row r="428" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="428" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="82" t="s">
         <v>88</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>12</v>
       </c>
       <c r="H428" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I428" s="78" t="s">
         <v>221</v>
@@ -16168,7 +16168,7 @@
       <c r="R428"/>
       <c r="S428"/>
     </row>
-    <row r="429" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="429" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="82" t="s">
         <v>20</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>12</v>
       </c>
       <c r="H429" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I429" s="78" t="s">
         <v>221</v>
@@ -16205,7 +16205,7 @@
       <c r="R429"/>
       <c r="S429"/>
     </row>
-    <row r="430" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="430" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="82" t="s">
         <v>18</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>12</v>
       </c>
       <c r="H430" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I430" s="78" t="s">
         <v>222</v>
@@ -16241,7 +16241,7 @@
       <c r="R430"/>
       <c r="S430"/>
     </row>
-    <row r="431" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="431" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="82" t="s">
         <v>71</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>12</v>
       </c>
       <c r="H431" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I431" s="78" t="s">
         <v>222</v>
@@ -16277,7 +16277,7 @@
       <c r="R431"/>
       <c r="S431"/>
     </row>
-    <row r="432" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="432" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="82" t="s">
         <v>87</v>
       </c>
@@ -16298,7 +16298,7 @@
         <v>12</v>
       </c>
       <c r="H432" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I432" s="78" t="s">
         <v>222</v>
@@ -16313,7 +16313,7 @@
       <c r="R432"/>
       <c r="S432"/>
     </row>
-    <row r="433" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="433" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="82" t="s">
         <v>60</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>12</v>
       </c>
       <c r="H433" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I433" s="78" t="s">
         <v>222</v>
@@ -16349,7 +16349,7 @@
       <c r="R433"/>
       <c r="S433"/>
     </row>
-    <row r="434" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="434" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="82" t="s">
         <v>88</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>12</v>
       </c>
       <c r="H434" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I434" s="78" t="s">
         <v>222</v>
@@ -16385,7 +16385,7 @@
       <c r="R434"/>
       <c r="S434"/>
     </row>
-    <row r="435" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="435" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="82" t="s">
         <v>89</v>
       </c>
@@ -16406,7 +16406,7 @@
         <v>12</v>
       </c>
       <c r="H435" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I435" s="78" t="s">
         <v>222</v>
@@ -16421,7 +16421,7 @@
       <c r="R435"/>
       <c r="S435"/>
     </row>
-    <row r="436" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="436" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="82" t="s">
         <v>90</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>12</v>
       </c>
       <c r="H436" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I436" s="78" t="s">
         <v>222</v>
@@ -16457,7 +16457,7 @@
       <c r="R436"/>
       <c r="S436"/>
     </row>
-    <row r="437" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="437" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="82" t="s">
         <v>31</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>12</v>
       </c>
       <c r="H437" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I437" s="78" t="s">
         <v>223</v>
@@ -16493,7 +16493,7 @@
       <c r="R437"/>
       <c r="S437"/>
     </row>
-    <row r="438" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="438" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="82" t="s">
         <v>76</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>12</v>
       </c>
       <c r="H438" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I438" s="78" t="s">
         <v>224</v>
@@ -16530,7 +16530,7 @@
       <c r="R438"/>
       <c r="S438"/>
     </row>
-    <row r="439" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="439" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="82" t="s">
         <v>20</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>12</v>
       </c>
       <c r="H439" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I439" s="78" t="s">
         <v>224</v>
@@ -16567,7 +16567,7 @@
       <c r="R439"/>
       <c r="S439"/>
     </row>
-    <row r="440" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="440" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="82" t="s">
         <v>76</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>12</v>
       </c>
       <c r="H440" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I440" s="78" t="s">
         <v>225</v>
@@ -16603,7 +16603,7 @@
       <c r="R440"/>
       <c r="S440"/>
     </row>
-    <row r="441" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="441" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="82" t="s">
         <v>20</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>12</v>
       </c>
       <c r="H441" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I441" s="78" t="s">
         <v>225</v>
@@ -16639,7 +16639,7 @@
       <c r="R441"/>
       <c r="S441"/>
     </row>
-    <row r="442" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="442" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="82" t="s">
         <v>76</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>12</v>
       </c>
       <c r="H442" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I442" s="78" t="s">
         <v>226</v>
@@ -16676,7 +16676,7 @@
       <c r="R442"/>
       <c r="S442"/>
     </row>
-    <row r="443" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="443" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="82" t="s">
         <v>20</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>12</v>
       </c>
       <c r="H443" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I443" s="78" t="s">
         <v>226</v>
@@ -16713,7 +16713,7 @@
       <c r="R443"/>
       <c r="S443"/>
     </row>
-    <row r="444" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="444" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="82" t="s">
         <v>76</v>
       </c>
@@ -16735,7 +16735,7 @@
         <v>12</v>
       </c>
       <c r="H444" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I444" s="78" t="s">
         <v>227</v>
@@ -16750,7 +16750,7 @@
       <c r="R444"/>
       <c r="S444"/>
     </row>
-    <row r="445" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="445" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="82" t="s">
         <v>20</v>
       </c>
@@ -16772,7 +16772,7 @@
         <v>12</v>
       </c>
       <c r="H445" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I445" s="78" t="s">
         <v>227</v>
@@ -16787,7 +16787,7 @@
       <c r="R445"/>
       <c r="S445"/>
     </row>
-    <row r="446" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="446" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="82" t="s">
         <v>228</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>12</v>
       </c>
       <c r="H446" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I446" s="78" t="s">
         <v>230</v>
@@ -16824,7 +16824,7 @@
       <c r="R446"/>
       <c r="S446"/>
     </row>
-    <row r="447" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="447" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="82" t="s">
         <v>97</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>12</v>
       </c>
       <c r="H447" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I447" s="78" t="s">
         <v>230</v>
@@ -16861,7 +16861,7 @@
       <c r="R447"/>
       <c r="S447"/>
     </row>
-    <row r="448" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="448" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="82" t="s">
         <v>89</v>
       </c>
@@ -16883,7 +16883,7 @@
         <v>12</v>
       </c>
       <c r="H448" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I448" s="78" t="s">
         <v>230</v>
@@ -16898,7 +16898,7 @@
       <c r="R448"/>
       <c r="S448"/>
     </row>
-    <row r="449" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="449" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="82" t="s">
         <v>71</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>12</v>
       </c>
       <c r="H449" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I449" s="78" t="s">
         <v>230</v>
@@ -16935,7 +16935,7 @@
       <c r="R449"/>
       <c r="S449"/>
     </row>
-    <row r="450" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="450" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="82" t="s">
         <v>90</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>12</v>
       </c>
       <c r="H450" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I450" s="78" t="s">
         <v>230</v>
@@ -16972,7 +16972,7 @@
       <c r="R450"/>
       <c r="S450"/>
     </row>
-    <row r="451" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="451" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="82" t="s">
         <v>87</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>12</v>
       </c>
       <c r="H451" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I451" s="78" t="s">
         <v>230</v>
@@ -17009,7 +17009,7 @@
       <c r="R451"/>
       <c r="S451"/>
     </row>
-    <row r="452" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="452" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="82" t="s">
         <v>88</v>
       </c>
@@ -17031,7 +17031,7 @@
         <v>12</v>
       </c>
       <c r="H452" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I452" s="78" t="s">
         <v>230</v>
@@ -17046,7 +17046,7 @@
       <c r="R452"/>
       <c r="S452"/>
     </row>
-    <row r="453" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="453" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="82" t="s">
         <v>87</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>12</v>
       </c>
       <c r="H453" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I453" s="78" t="s">
         <v>231</v>
@@ -17083,7 +17083,7 @@
       <c r="R453"/>
       <c r="S453"/>
     </row>
-    <row r="454" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="454" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="82" t="s">
         <v>88</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>12</v>
       </c>
       <c r="H454" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I454" s="78" t="s">
         <v>231</v>
@@ -17120,7 +17120,7 @@
       <c r="R454"/>
       <c r="S454"/>
     </row>
-    <row r="455" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="455" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="82" t="s">
         <v>87</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>12</v>
       </c>
       <c r="H455" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I455" s="78" t="s">
         <v>232</v>
@@ -17156,7 +17156,7 @@
       <c r="R455"/>
       <c r="S455"/>
     </row>
-    <row r="456" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="456" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="82" t="s">
         <v>88</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>12</v>
       </c>
       <c r="H456" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I456" s="78" t="s">
         <v>232</v>
@@ -17192,7 +17192,7 @@
       <c r="R456"/>
       <c r="S456"/>
     </row>
-    <row r="457" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="457" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="82" t="s">
         <v>87</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>12</v>
       </c>
       <c r="H457" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I457" s="78" t="s">
         <v>233</v>
@@ -17228,7 +17228,7 @@
       <c r="R457"/>
       <c r="S457"/>
     </row>
-    <row r="458" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="458" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="82" t="s">
         <v>88</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>12</v>
       </c>
       <c r="H458" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I458" s="78" t="s">
         <v>233</v>
@@ -17264,7 +17264,7 @@
       <c r="R458"/>
       <c r="S458"/>
     </row>
-    <row r="459" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="459" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="82" t="s">
         <v>18</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>12</v>
       </c>
       <c r="H459" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I459" s="78" t="s">
         <v>234</v>
@@ -17300,7 +17300,7 @@
       <c r="R459"/>
       <c r="S459"/>
     </row>
-    <row r="460" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="460" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="82" t="s">
         <v>71</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>12</v>
       </c>
       <c r="H460" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I460" s="78" t="s">
         <v>234</v>
@@ -17336,7 +17336,7 @@
       <c r="R460"/>
       <c r="S460"/>
     </row>
-    <row r="461" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="461" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="82" t="s">
         <v>87</v>
       </c>
@@ -17357,7 +17357,7 @@
         <v>12</v>
       </c>
       <c r="H461" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I461" s="78" t="s">
         <v>234</v>
@@ -17372,7 +17372,7 @@
       <c r="R461"/>
       <c r="S461"/>
     </row>
-    <row r="462" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="462" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="82" t="s">
         <v>89</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>12</v>
       </c>
       <c r="H462" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I462" s="78" t="s">
         <v>234</v>
@@ -17408,7 +17408,7 @@
       <c r="R462"/>
       <c r="S462"/>
     </row>
-    <row r="463" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="463" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="82" t="s">
         <v>90</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>12</v>
       </c>
       <c r="H463" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I463" s="78" t="s">
         <v>234</v>
@@ -17444,7 +17444,7 @@
       <c r="R463"/>
       <c r="S463"/>
     </row>
-    <row r="464" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="464" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="82" t="s">
         <v>26</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>12</v>
       </c>
       <c r="H464" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I464" s="78" t="s">
         <v>236</v>
@@ -17480,7 +17480,7 @@
       <c r="R464"/>
       <c r="S464"/>
     </row>
-    <row r="465" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="465" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="82" t="s">
         <v>88</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>12</v>
       </c>
       <c r="H465" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I465" s="78" t="s">
         <v>236</v>
@@ -17516,7 +17516,7 @@
       <c r="R465"/>
       <c r="S465"/>
     </row>
-    <row r="466" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="466" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="82" t="s">
         <v>106</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>12</v>
       </c>
       <c r="H466" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I466" s="78" t="s">
         <v>237</v>
@@ -17552,7 +17552,7 @@
       <c r="R466"/>
       <c r="S466"/>
     </row>
-    <row r="467" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="467" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="82" t="s">
         <v>109</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>12</v>
       </c>
       <c r="H467" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I467" s="78" t="s">
         <v>237</v>
@@ -17588,7 +17588,7 @@
       <c r="R467"/>
       <c r="S467"/>
     </row>
-    <row r="468" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="468" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="82" t="s">
         <v>87</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>12</v>
       </c>
       <c r="H468" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I468" s="78" t="s">
         <v>237</v>
@@ -17624,7 +17624,7 @@
       <c r="R468"/>
       <c r="S468"/>
     </row>
-    <row r="469" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="469" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="82" t="s">
         <v>88</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>12</v>
       </c>
       <c r="H469" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I469" s="78" t="s">
         <v>237</v>
@@ -17660,7 +17660,7 @@
       <c r="R469"/>
       <c r="S469"/>
     </row>
-    <row r="470" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="470" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="82" t="s">
         <v>76</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>12</v>
       </c>
       <c r="H470" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I470" s="78" t="s">
         <v>118</v>
@@ -17696,7 +17696,7 @@
       <c r="R470"/>
       <c r="S470"/>
     </row>
-    <row r="471" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="471" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="82" t="s">
         <v>20</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>12</v>
       </c>
       <c r="H471" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I471" s="78" t="s">
         <v>118</v>
@@ -17732,7 +17732,7 @@
       <c r="R471"/>
       <c r="S471"/>
     </row>
-    <row r="472" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="472" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="82" t="s">
         <v>119</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>12</v>
       </c>
       <c r="H472" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I472" s="78" t="s">
         <v>118</v>
@@ -17768,7 +17768,7 @@
       <c r="R472"/>
       <c r="S472"/>
     </row>
-    <row r="473" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="473" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="82" t="s">
         <v>88</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>12</v>
       </c>
       <c r="H473" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I473" s="78" t="s">
         <v>122</v>
@@ -17804,7 +17804,7 @@
       <c r="R473"/>
       <c r="S473"/>
     </row>
-    <row r="474" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="474" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="82" t="s">
         <v>238</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>12</v>
       </c>
       <c r="H474" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I474" s="78" t="s">
         <v>122</v>
@@ -17840,7 +17840,7 @@
       <c r="R474"/>
       <c r="S474"/>
     </row>
-    <row r="475" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="475" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="82" t="s">
         <v>123</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>12</v>
       </c>
       <c r="H475" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I475" s="78" t="s">
         <v>240</v>
@@ -17876,7 +17876,7 @@
       <c r="R475"/>
       <c r="S475"/>
     </row>
-    <row r="476" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="476" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="77" t="s">
         <v>33</v>
       </c>
@@ -17897,7 +17897,7 @@
         <v>12</v>
       </c>
       <c r="H476" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I476" s="77" t="s">
         <v>82</v>
@@ -17912,7 +17912,7 @@
       <c r="R476"/>
       <c r="S476"/>
     </row>
-    <row r="477" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="477" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B477" s="12"/>
       <c r="C477" s="9"/>
       <c r="G477" s="9"/>
@@ -17924,7 +17924,7 @@
       <c r="P477" s="11"/>
       <c r="Q477" s="11"/>
     </row>
-    <row r="478" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="478" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="75" t="s">
         <v>1</v>
       </c>
@@ -17945,7 +17945,7 @@
       <c r="P478" s="11"/>
       <c r="Q478" s="11"/>
     </row>
-    <row r="479" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="479" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="79" t="s">
         <v>3</v>
       </c>
@@ -17966,7 +17966,7 @@
       <c r="P479" s="11"/>
       <c r="Q479" s="11"/>
     </row>
-    <row r="480" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="480" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="79" t="s">
         <v>11</v>
       </c>
@@ -17987,7 +17987,7 @@
       <c r="P480" s="11"/>
       <c r="Q480" s="11"/>
     </row>
-    <row r="481" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="481" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="79" t="s">
         <v>4</v>
       </c>
@@ -18008,7 +18008,7 @@
       <c r="P481" s="11"/>
       <c r="Q481" s="11"/>
     </row>
-    <row r="482" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="482" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="79" t="s">
         <v>2</v>
       </c>
@@ -18029,7 +18029,7 @@
       <c r="P482" s="11"/>
       <c r="Q482" s="11"/>
     </row>
-    <row r="483" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="483" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="79" t="s">
         <v>6</v>
       </c>
@@ -18050,7 +18050,7 @@
       <c r="P483" s="11"/>
       <c r="Q483" s="11"/>
     </row>
-    <row r="484" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="484" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="83" t="s">
         <v>7</v>
       </c>
@@ -18071,7 +18071,7 @@
       <c r="P484" s="11"/>
       <c r="Q484" s="11"/>
     </row>
-    <row r="485" spans="1:21" s="10" customFormat="1" ht="15.75">
+    <row r="485" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="83" t="s">
         <v>8</v>
       </c>
@@ -18112,7 +18112,7 @@
       <c r="T485" s="13"/>
       <c r="U485" s="8"/>
     </row>
-    <row r="486" spans="1:21" s="10" customFormat="1" ht="15">
+    <row r="486" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="82" t="str">
         <f>B478</f>
         <v>treatment of fuel cell balance of plant, 1MWe, SOEC</v>
@@ -18149,7 +18149,7 @@
       <c r="P486" s="11"/>
       <c r="Q486" s="11"/>
     </row>
-    <row r="487" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="487" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="82" t="s">
         <v>242</v>
       </c>
@@ -18170,7 +18170,7 @@
         <v>12</v>
       </c>
       <c r="H487" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I487" s="77"/>
       <c r="K487"/>
@@ -18183,7 +18183,7 @@
       <c r="R487"/>
       <c r="S487"/>
     </row>
-    <row r="488" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="488" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="82" t="s">
         <v>499</v>
       </c>
@@ -18204,7 +18204,7 @@
         <v>12</v>
       </c>
       <c r="H488" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I488" s="77"/>
       <c r="K488"/>
@@ -18217,7 +18217,7 @@
       <c r="R488"/>
       <c r="S488"/>
     </row>
-    <row r="489" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="489" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="77" t="s">
         <v>244</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>12</v>
       </c>
       <c r="H489" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I489" s="77"/>
       <c r="K489"/>
@@ -18251,7 +18251,7 @@
       <c r="R489"/>
       <c r="S489"/>
     </row>
-    <row r="490" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="490" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="77" t="s">
         <v>271</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>12</v>
       </c>
       <c r="H490" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I490" s="77"/>
       <c r="K490"/>
@@ -18285,7 +18285,7 @@
       <c r="R490"/>
       <c r="S490"/>
     </row>
-    <row r="491" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="491" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="77" t="s">
         <v>259</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>12</v>
       </c>
       <c r="H491" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I491" s="77"/>
       <c r="K491"/>
@@ -18319,7 +18319,7 @@
       <c r="R491"/>
       <c r="S491"/>
     </row>
-    <row r="492" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="492" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="77" t="s">
         <v>260</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>12</v>
       </c>
       <c r="H492" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I492" s="77"/>
       <c r="K492"/>
@@ -18353,7 +18353,7 @@
       <c r="R492"/>
       <c r="S492"/>
     </row>
-    <row r="493" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="493" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="77" t="s">
         <v>262</v>
       </c>
@@ -18374,7 +18374,7 @@
         <v>12</v>
       </c>
       <c r="H493" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I493" s="77"/>
       <c r="K493"/>
@@ -18387,7 +18387,7 @@
       <c r="R493"/>
       <c r="S493"/>
     </row>
-    <row r="494" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="494" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="77" t="s">
         <v>501</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>12</v>
       </c>
       <c r="H494" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I494" s="77"/>
       <c r="K494"/>
@@ -18421,7 +18421,7 @@
       <c r="R494"/>
       <c r="S494"/>
     </row>
-    <row r="495" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="495" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="77" t="s">
         <v>246</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>12</v>
       </c>
       <c r="H495" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I495" s="77"/>
       <c r="K495"/>
@@ -18455,7 +18455,7 @@
       <c r="R495"/>
       <c r="S495"/>
     </row>
-    <row r="496" spans="1:21" s="10" customFormat="1" ht="15.4">
+    <row r="496" spans="1:21" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="77" t="s">
         <v>248</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>12</v>
       </c>
       <c r="H496" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I496" s="77"/>
       <c r="K496"/>
@@ -18489,7 +18489,7 @@
       <c r="R496"/>
       <c r="S496"/>
     </row>
-    <row r="497" spans="1:19" s="10" customFormat="1" ht="15.4">
+    <row r="497" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="77" t="s">
         <v>498</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>12</v>
       </c>
       <c r="H497" s="77" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I497" s="77"/>
       <c r="K497"/>
@@ -18523,7 +18523,7 @@
       <c r="R497"/>
       <c r="S497"/>
     </row>
-    <row r="498" spans="1:19" s="10" customFormat="1" ht="15">
+    <row r="498" spans="1:19" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B498" s="12"/>
       <c r="L498" s="11"/>
       <c r="M498" s="11"/>
@@ -18546,22 +18546,22 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18.265625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.65" thickBot="1"/>
-    <row r="3" spans="1:6" ht="26.65" thickBot="1">
+    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="25" t="s">
         <v>320</v>
@@ -18579,7 +18579,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>473</v>
       </c>
@@ -18589,15 +18589,15 @@
       <c r="C4" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="101" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="98"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="28" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64.150000000000006" thickBot="1">
+    <row r="5" spans="1:6" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>475</v>
       </c>
@@ -18607,29 +18607,29 @@
       <c r="C5" s="27">
         <v>5.5</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="103">
         <v>2.5</v>
       </c>
-      <c r="E5" s="100"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="27" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.65" thickBot="1">
+    <row r="6" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>447</v>
       </c>
       <c r="B6" s="94" t="s">
         <v>448</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="29" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.65" thickBot="1">
+    <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>450</v>
       </c>
@@ -18639,15 +18639,15 @@
       <c r="C7" s="27">
         <v>20</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="103">
         <v>20</v>
       </c>
-      <c r="E7" s="100"/>
+      <c r="E7" s="104"/>
       <c r="F7" s="27" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="52.9" thickBot="1">
+    <row r="8" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>451</v>
       </c>
@@ -18657,29 +18657,29 @@
       <c r="C8" s="27">
         <v>3</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="103">
         <v>7</v>
       </c>
-      <c r="E8" s="100"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="27" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.15" thickBot="1">
+    <row r="9" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>453</v>
       </c>
       <c r="B9" s="94" t="s">
         <v>477</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="29" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="64.150000000000006" thickBot="1">
+    <row r="10" spans="1:6" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>455</v>
       </c>
@@ -18699,7 +18699,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.15" thickBot="1">
+    <row r="11" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>478</v>
       </c>
@@ -18719,7 +18719,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="38.65" thickBot="1">
+    <row r="12" spans="1:6" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>458</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
+    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>460</v>
       </c>
@@ -18746,12 +18746,12 @@
       <c r="D13" s="94">
         <v>23.6</v>
       </c>
-      <c r="E13" s="96"/>
+      <c r="E13" s="95"/>
       <c r="F13" s="27" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>461</v>
       </c>
@@ -18759,13 +18759,13 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="C14" s="34"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="29" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="26.65" thickBot="1">
+    <row r="15" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>463</v>
       </c>
@@ -18778,12 +18778,12 @@
       <c r="D15" s="94" t="s">
         <v>466</v>
       </c>
-      <c r="E15" s="96"/>
+      <c r="E15" s="95"/>
       <c r="F15" s="27" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.65" thickBot="1">
+    <row r="16" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>467</v>
       </c>
@@ -18796,12 +18796,12 @@
       <c r="D16" s="94" t="s">
         <v>470</v>
       </c>
-      <c r="E16" s="96"/>
+      <c r="E16" s="95"/>
       <c r="F16" s="27" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="102.4" thickBot="1">
+    <row r="17" spans="1:6" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>471</v>
       </c>
@@ -18811,27 +18811,27 @@
       <c r="C17" s="28">
         <v>2963200</v>
       </c>
-      <c r="D17" s="103">
+      <c r="D17" s="98">
         <v>3776000</v>
       </c>
-      <c r="E17" s="104"/>
+      <c r="E17" s="99"/>
       <c r="F17" s="29" t="s">
         <v>472</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18843,41 +18843,41 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.265625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.265625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.86328125" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="15" width="13.86328125" customWidth="1"/>
+    <col min="14" max="15" width="13.83203125" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.73046875" customWidth="1"/>
-    <col min="23" max="23" width="13.86328125" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
-    <col min="25" max="25" width="12.73046875" customWidth="1"/>
-    <col min="27" max="28" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" customWidth="1"/>
+    <col min="27" max="28" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="63">
+    <row r="3" spans="1:33" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>277</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>310</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>316</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>318</v>
       </c>
@@ -19172,7 +19172,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>322</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>324</v>
       </c>
@@ -19272,7 +19272,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>322</v>
       </c>
@@ -19303,7 +19303,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>327</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>327</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>316</v>
       </c>
@@ -19545,7 +19545,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>324</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>327</v>
       </c>
@@ -19786,7 +19786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>327</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>322</v>
       </c>
@@ -19914,7 +19914,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>324</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>338</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>324</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>316</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>327</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>327</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>322</v>
       </c>
@@ -20422,7 +20422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>345</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>322</v>
       </c>
@@ -20550,7 +20550,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>327</v>
       </c>
@@ -20647,7 +20647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>322</v>
       </c>
@@ -20783,7 +20783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>316</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>352</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>338</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>355</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>345</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>310</v>
       </c>
@@ -21196,7 +21196,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>355</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>327</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>327</v>
       </c>
@@ -21446,7 +21446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>345</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>352</v>
       </c>
@@ -21600,7 +21600,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>345</v>
       </c>
@@ -21697,7 +21697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>365</v>
       </c>
@@ -21745,7 +21745,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>367</v>
       </c>
@@ -21808,7 +21808,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>345</v>
       </c>
@@ -21905,7 +21905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>352</v>
       </c>
@@ -21962,7 +21962,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>322</v>
       </c>
@@ -22001,7 +22001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>327</v>
       </c>
@@ -22084,7 +22084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>345</v>
       </c>
@@ -22181,7 +22181,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>355</v>
       </c>
@@ -22237,7 +22237,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>365</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>376</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>345</v>
       </c>
@@ -22425,7 +22425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>355</v>
       </c>
@@ -22484,7 +22484,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>365</v>
       </c>
@@ -22532,7 +22532,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>345</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>322</v>
       </c>
@@ -22668,7 +22668,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>383</v>
       </c>
@@ -22768,7 +22768,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>327</v>
       </c>
@@ -22851,7 +22851,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>355</v>
       </c>
@@ -22910,7 +22910,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>387</v>
       </c>
@@ -22967,7 +22967,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>367</v>
       </c>
@@ -23023,7 +23023,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>390</v>
       </c>
@@ -23100,7 +23100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>318</v>
       </c>
@@ -23180,7 +23180,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>393</v>
       </c>
@@ -23218,7 +23218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>393</v>
       </c>
@@ -23260,7 +23260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>338</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>352</v>
       </c>
@@ -23400,7 +23400,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>345</v>
       </c>
@@ -23497,7 +23497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>376</v>
       </c>
@@ -23537,7 +23537,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>367</v>
       </c>
@@ -23600,7 +23600,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>338</v>
       </c>
@@ -23700,7 +23700,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>355</v>
       </c>
@@ -23759,7 +23759,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>345</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>355</v>
       </c>
@@ -23915,7 +23915,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>406</v>
       </c>
@@ -23989,7 +23989,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>322</v>
       </c>
@@ -24028,7 +24028,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>383</v>
       </c>
@@ -24128,7 +24128,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>376</v>
       </c>
@@ -24168,7 +24168,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>345</v>
       </c>
@@ -24265,7 +24265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>412</v>
       </c>
@@ -24318,7 +24318,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>390</v>
       </c>
@@ -24387,7 +24387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>383</v>
       </c>
@@ -24487,7 +24487,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>406</v>
       </c>
@@ -24561,7 +24561,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>406</v>
       </c>
@@ -24635,7 +24635,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>322</v>
       </c>
@@ -24674,7 +24674,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>406</v>
       </c>
@@ -24748,7 +24748,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>390</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:33">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>387</v>
       </c>
@@ -24867,7 +24867,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>355</v>
       </c>
@@ -24927,7 +24927,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>423</v>
       </c>
@@ -24978,7 +24978,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="91" spans="1:33">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>423</v>
       </c>
@@ -25021,7 +25021,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="92" spans="1:33">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>390</v>
       </c>
@@ -25098,7 +25098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>376</v>
       </c>
@@ -25138,7 +25138,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="94" spans="1:33">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>428</v>
       </c>
@@ -25197,7 +25197,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="95" spans="1:33">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>390</v>
       </c>
@@ -25274,7 +25274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:33">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>431</v>
       </c>
@@ -25327,7 +25327,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="97" spans="1:33">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>390</v>
       </c>
@@ -25404,7 +25404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:33">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>390</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>387</v>
       </c>
@@ -25487,7 +25487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>387</v>
       </c>
@@ -25518,7 +25518,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>387</v>
       </c>
@@ -25549,7 +25549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:33">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>387</v>
       </c>
@@ -25580,7 +25580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>439</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>439</v>
       </c>
